--- a/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
+++ b/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lazarus\Documents\GitHub\Voodoo\_WIP\Michelle\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12885"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="153">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -59,9 +54,6 @@
     <t>Mo., 09.04.2018</t>
   </si>
   <si>
-    <t>(zB krank, Arzt, Arbeit, etc)</t>
-  </si>
-  <si>
     <t>Di., 10.04.2018</t>
   </si>
   <si>
@@ -462,12 +454,36 @@
   </si>
   <si>
     <t>So., 12.08.2018</t>
+  </si>
+  <si>
+    <t>Krank</t>
+  </si>
+  <si>
+    <t>Konnzept Fetisch</t>
+  </si>
+  <si>
+    <t>3D Boden-/Deckenplatten &amp; Kisten</t>
+  </si>
+  <si>
+    <t>3D Fenster &amp; Regal</t>
+  </si>
+  <si>
+    <t>Meeting</t>
+  </si>
+  <si>
+    <t>Krank/Home Office</t>
+  </si>
+  <si>
+    <t>3D Kisten</t>
+  </si>
+  <si>
+    <t>3D Schreibtisch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
@@ -1053,7 +1069,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1063,8 +1079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,24 +1182,24 @@
         <f>(B6-C6)*-24-D6</f>
         <v>8.5</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>11</v>
-      </c>
+      <c r="F6" s="10"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="12"/>
+      <c r="H6" s="12" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="13">
         <v>0.36458333333333331</v>
       </c>
       <c r="C7" s="13">
-        <v>0.6875</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D7" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" ref="E7:E12" si="0">(B7-C7)*-24-D7</f>
@@ -1191,22 +1207,22 @@
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="13">
         <v>0.375</v>
       </c>
       <c r="C8" s="13">
-        <v>0.6875</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D8" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="9">
         <f t="shared" si="0"/>
@@ -1214,13 +1230,13 @@
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="13">
         <v>0.36458333333333331</v>
@@ -1237,13 +1253,13 @@
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="13">
         <v>0.375</v>
@@ -1261,12 +1277,12 @@
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -1281,7 +1297,7 @@
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -1299,7 +1315,7 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13" s="21">
         <f>SUM(E6:E12)</f>
@@ -1314,7 +1330,7 @@
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" s="22">
         <f>SUM(E13)</f>
@@ -1352,7 +1368,7 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -1367,7 +1383,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -1382,7 +1398,7 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -1397,7 +1413,7 @@
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="13">
         <v>0.375</v>
@@ -1414,13 +1430,13 @@
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="13">
         <v>0.36458333333333331</v>
@@ -1437,13 +1453,13 @@
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -1458,7 +1474,7 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -1476,7 +1492,7 @@
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23" s="21">
         <f>SUM(E16:E22)</f>
@@ -1491,7 +1507,7 @@
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24" s="22">
         <f>SUM(E13+E23)</f>
@@ -1529,16 +1545,16 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" s="13">
         <v>0.39583333333333331</v>
       </c>
       <c r="C26" s="13">
-        <v>0.6875</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D26" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="9">
         <f>(B26-C26)*-24-D26</f>
@@ -1546,13 +1562,13 @@
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -1561,28 +1577,40 @@
         <f t="shared" ref="E27:E32" si="2">(B27-C27)*-24-D27</f>
         <v>0</v>
       </c>
-      <c r="F27" s="12"/>
+      <c r="F27" s="12" t="s">
+        <v>145</v>
+      </c>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14"/>
+        <v>35</v>
+      </c>
+      <c r="B28" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="C28" s="13">
+        <v>0.625</v>
+      </c>
+      <c r="D28" s="14">
+        <v>0</v>
+      </c>
       <c r="E28" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
+        <v>3</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>146</v>
+      </c>
       <c r="H28" s="12"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -1592,12 +1620,14 @@
         <v>0</v>
       </c>
       <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
+      <c r="G29" s="12" t="s">
+        <v>147</v>
+      </c>
       <c r="H29" s="12"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -1607,12 +1637,14 @@
         <v>0</v>
       </c>
       <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
+      <c r="G30" s="12" t="s">
+        <v>148</v>
+      </c>
       <c r="H30" s="12"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -1627,7 +1659,7 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -1645,11 +1677,11 @@
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E33" s="21">
         <f>SUM(E26:E32)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -1660,11 +1692,11 @@
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E34" s="22">
         <f>SUM(E13+E23+E33)</f>
-        <v>53.650000000000006</v>
+        <v>56.650000000000006</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -1698,22 +1730,28 @@
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
+        <v>40</v>
+      </c>
+      <c r="B36" s="13">
+        <v>0.6875</v>
+      </c>
+      <c r="C36" s="13">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="D36" s="23"/>
       <c r="E36" s="9">
         <f>(B36-C36)*-24-D36</f>
-        <v>0</v>
+        <v>0.99999999999999911</v>
       </c>
       <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
+      <c r="G36" s="12" t="s">
+        <v>151</v>
+      </c>
       <c r="H36" s="12"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -1728,7 +1766,7 @@
     </row>
     <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
@@ -1743,7 +1781,7 @@
     </row>
     <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
@@ -1758,7 +1796,7 @@
     </row>
     <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -1773,7 +1811,7 @@
     </row>
     <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
@@ -1788,7 +1826,7 @@
     </row>
     <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
@@ -1806,11 +1844,11 @@
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E43" s="21">
         <f>SUM(E36:E42)</f>
-        <v>0</v>
+        <v>0.99999999999999911</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -1821,11 +1859,11 @@
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E44" s="22">
         <f>SUM(E13+E23+E33+E43)</f>
-        <v>53.650000000000006</v>
+        <v>57.650000000000006</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -1859,22 +1897,26 @@
     </row>
     <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" s="13"/>
+        <v>47</v>
+      </c>
+      <c r="B46" s="13">
+        <v>0.40625</v>
+      </c>
       <c r="C46" s="13"/>
       <c r="D46" s="23"/>
       <c r="E46" s="9">
         <f>(B46-C46)*-24-D46</f>
-        <v>0</v>
+        <v>-9.75</v>
       </c>
       <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
+      <c r="G46" s="12" t="s">
+        <v>152</v>
+      </c>
       <c r="H46" s="12"/>
     </row>
     <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
@@ -1889,7 +1931,7 @@
     </row>
     <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
@@ -1904,7 +1946,7 @@
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
@@ -1919,7 +1961,7 @@
     </row>
     <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
@@ -1934,7 +1976,7 @@
     </row>
     <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
@@ -1949,7 +1991,7 @@
     </row>
     <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
@@ -1967,11 +2009,11 @@
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E53" s="21">
         <f>SUM(E46:E52)</f>
-        <v>0</v>
+        <v>-9.75</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -1982,11 +2024,11 @@
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E54" s="22">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>53.650000000000006</v>
+        <v>47.900000000000006</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -2020,7 +2062,7 @@
     </row>
     <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
@@ -2035,7 +2077,7 @@
     </row>
     <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
@@ -2050,7 +2092,7 @@
     </row>
     <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
@@ -2065,7 +2107,7 @@
     </row>
     <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
@@ -2080,7 +2122,7 @@
     </row>
     <row r="60" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
@@ -2095,7 +2137,7 @@
     </row>
     <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
@@ -2110,7 +2152,7 @@
     </row>
     <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
@@ -2128,7 +2170,7 @@
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E63" s="21">
         <f>SUM(E56:E62)</f>
@@ -2143,11 +2185,11 @@
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E64" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>53.650000000000006</v>
+        <v>47.900000000000006</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -2181,7 +2223,7 @@
     </row>
     <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
@@ -2196,7 +2238,7 @@
     </row>
     <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
@@ -2211,7 +2253,7 @@
     </row>
     <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
@@ -2226,7 +2268,7 @@
     </row>
     <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
@@ -2241,7 +2283,7 @@
     </row>
     <row r="70" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
@@ -2256,7 +2298,7 @@
     </row>
     <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
@@ -2271,7 +2313,7 @@
     </row>
     <row r="72" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
@@ -2289,7 +2331,7 @@
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E73" s="27">
         <f>SUM(E66:E72)</f>
@@ -2304,11 +2346,11 @@
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E74" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>53.650000000000006</v>
+        <v>47.900000000000006</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -2342,7 +2384,7 @@
     </row>
     <row r="76" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
@@ -2357,7 +2399,7 @@
     </row>
     <row r="77" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
@@ -2372,7 +2414,7 @@
     </row>
     <row r="78" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
@@ -2387,7 +2429,7 @@
     </row>
     <row r="79" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
@@ -2402,7 +2444,7 @@
     </row>
     <row r="80" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
@@ -2417,7 +2459,7 @@
     </row>
     <row r="81" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B81" s="13"/>
       <c r="C81" s="13"/>
@@ -2432,7 +2474,7 @@
     </row>
     <row r="82" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B82" s="16"/>
       <c r="C82" s="16"/>
@@ -2450,7 +2492,7 @@
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E83" s="27">
         <f>SUM(E76:E82)</f>
@@ -2465,11 +2507,11 @@
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E84" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>53.650000000000006</v>
+        <v>47.900000000000006</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -2503,7 +2545,7 @@
     </row>
     <row r="86" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
@@ -2518,7 +2560,7 @@
     </row>
     <row r="87" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
@@ -2533,7 +2575,7 @@
     </row>
     <row r="88" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
@@ -2548,7 +2590,7 @@
     </row>
     <row r="89" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
@@ -2563,7 +2605,7 @@
     </row>
     <row r="90" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
@@ -2578,7 +2620,7 @@
     </row>
     <row r="91" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B91" s="13"/>
       <c r="C91" s="13"/>
@@ -2593,7 +2635,7 @@
     </row>
     <row r="92" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B92" s="16"/>
       <c r="C92" s="16"/>
@@ -2611,7 +2653,7 @@
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E93" s="27">
         <f>SUM(E86:E92)</f>
@@ -2626,11 +2668,11 @@
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E94" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>53.650000000000006</v>
+        <v>47.900000000000006</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -2664,7 +2706,7 @@
     </row>
     <row r="96" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B96" s="13"/>
       <c r="C96" s="13"/>
@@ -2679,7 +2721,7 @@
     </row>
     <row r="97" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B97" s="13"/>
       <c r="C97" s="13"/>
@@ -2694,7 +2736,7 @@
     </row>
     <row r="98" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
@@ -2709,7 +2751,7 @@
     </row>
     <row r="99" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
@@ -2724,7 +2766,7 @@
     </row>
     <row r="100" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B100" s="13"/>
       <c r="C100" s="13"/>
@@ -2739,7 +2781,7 @@
     </row>
     <row r="101" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B101" s="13"/>
       <c r="C101" s="13"/>
@@ -2754,7 +2796,7 @@
     </row>
     <row r="102" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B102" s="16"/>
       <c r="C102" s="16"/>
@@ -2772,7 +2814,7 @@
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E103" s="27">
         <f>SUM(E96:E102)</f>
@@ -2787,11 +2829,11 @@
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E104" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>53.650000000000006</v>
+        <v>47.900000000000006</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -2825,7 +2867,7 @@
     </row>
     <row r="106" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B106" s="13"/>
       <c r="C106" s="13"/>
@@ -2840,7 +2882,7 @@
     </row>
     <row r="107" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B107" s="13"/>
       <c r="C107" s="13"/>
@@ -2855,7 +2897,7 @@
     </row>
     <row r="108" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B108" s="13"/>
       <c r="C108" s="13"/>
@@ -2870,7 +2912,7 @@
     </row>
     <row r="109" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B109" s="13"/>
       <c r="C109" s="13"/>
@@ -2885,7 +2927,7 @@
     </row>
     <row r="110" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B110" s="13"/>
       <c r="C110" s="13"/>
@@ -2900,7 +2942,7 @@
     </row>
     <row r="111" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B111" s="13"/>
       <c r="C111" s="13"/>
@@ -2915,7 +2957,7 @@
     </row>
     <row r="112" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B112" s="16"/>
       <c r="C112" s="16"/>
@@ -2933,7 +2975,7 @@
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E113" s="27">
         <f>SUM(E106:E112)</f>
@@ -2948,11 +2990,11 @@
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E114" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>53.650000000000006</v>
+        <v>47.900000000000006</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -2986,7 +3028,7 @@
     </row>
     <row r="116" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B116" s="13"/>
       <c r="C116" s="13"/>
@@ -3001,7 +3043,7 @@
     </row>
     <row r="117" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B117" s="13"/>
       <c r="C117" s="13"/>
@@ -3016,7 +3058,7 @@
     </row>
     <row r="118" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B118" s="13"/>
       <c r="C118" s="13"/>
@@ -3031,7 +3073,7 @@
     </row>
     <row r="119" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B119" s="13"/>
       <c r="C119" s="13"/>
@@ -3046,7 +3088,7 @@
     </row>
     <row r="120" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B120" s="13"/>
       <c r="C120" s="13"/>
@@ -3061,7 +3103,7 @@
     </row>
     <row r="121" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B121" s="13"/>
       <c r="C121" s="13"/>
@@ -3076,7 +3118,7 @@
     </row>
     <row r="122" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B122" s="16"/>
       <c r="C122" s="16"/>
@@ -3094,7 +3136,7 @@
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E123" s="27">
         <f>SUM(E116:E122)</f>
@@ -3109,11 +3151,11 @@
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E124" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>53.650000000000006</v>
+        <v>47.900000000000006</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3147,7 +3189,7 @@
     </row>
     <row r="126" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B126" s="13"/>
       <c r="C126" s="13"/>
@@ -3162,7 +3204,7 @@
     </row>
     <row r="127" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B127" s="13"/>
       <c r="C127" s="13"/>
@@ -3177,7 +3219,7 @@
     </row>
     <row r="128" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B128" s="13"/>
       <c r="C128" s="13"/>
@@ -3192,7 +3234,7 @@
     </row>
     <row r="129" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B129" s="13"/>
       <c r="C129" s="13"/>
@@ -3207,7 +3249,7 @@
     </row>
     <row r="130" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B130" s="13"/>
       <c r="C130" s="13"/>
@@ -3222,7 +3264,7 @@
     </row>
     <row r="131" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B131" s="13"/>
       <c r="C131" s="13"/>
@@ -3237,7 +3279,7 @@
     </row>
     <row r="132" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B132" s="16"/>
       <c r="C132" s="16"/>
@@ -3255,7 +3297,7 @@
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E133" s="27">
         <f>SUM(E126:E132)</f>
@@ -3270,11 +3312,11 @@
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>53.650000000000006</v>
+        <v>47.900000000000006</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3308,7 +3350,7 @@
     </row>
     <row r="136" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B136" s="13"/>
       <c r="C136" s="13"/>
@@ -3323,7 +3365,7 @@
     </row>
     <row r="137" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B137" s="13"/>
       <c r="C137" s="13"/>
@@ -3338,7 +3380,7 @@
     </row>
     <row r="138" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B138" s="13"/>
       <c r="C138" s="13"/>
@@ -3353,7 +3395,7 @@
     </row>
     <row r="139" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B139" s="13"/>
       <c r="C139" s="13"/>
@@ -3368,7 +3410,7 @@
     </row>
     <row r="140" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B140" s="13"/>
       <c r="C140" s="13"/>
@@ -3383,7 +3425,7 @@
     </row>
     <row r="141" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B141" s="13"/>
       <c r="C141" s="13"/>
@@ -3398,7 +3440,7 @@
     </row>
     <row r="142" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B142" s="16"/>
       <c r="C142" s="16"/>
@@ -3416,7 +3458,7 @@
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E143" s="27">
         <f>SUM(E136:E142)</f>
@@ -3431,11 +3473,11 @@
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>53.650000000000006</v>
+        <v>47.900000000000006</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3469,7 +3511,7 @@
     </row>
     <row r="146" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B146" s="13"/>
       <c r="C146" s="13"/>
@@ -3484,7 +3526,7 @@
     </row>
     <row r="147" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B147" s="13"/>
       <c r="C147" s="13"/>
@@ -3499,7 +3541,7 @@
     </row>
     <row r="148" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B148" s="13"/>
       <c r="C148" s="13"/>
@@ -3514,7 +3556,7 @@
     </row>
     <row r="149" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B149" s="13"/>
       <c r="C149" s="13"/>
@@ -3529,7 +3571,7 @@
     </row>
     <row r="150" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B150" s="13"/>
       <c r="C150" s="13"/>
@@ -3544,7 +3586,7 @@
     </row>
     <row r="151" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B151" s="13"/>
       <c r="C151" s="13"/>
@@ -3559,7 +3601,7 @@
     </row>
     <row r="152" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B152" s="16"/>
       <c r="C152" s="16"/>
@@ -3577,7 +3619,7 @@
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E153" s="27">
         <f>SUM(E146:E152)</f>
@@ -3592,11 +3634,11 @@
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>53.650000000000006</v>
+        <v>47.900000000000006</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3630,7 +3672,7 @@
     </row>
     <row r="156" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B156" s="13"/>
       <c r="C156" s="13"/>
@@ -3645,7 +3687,7 @@
     </row>
     <row r="157" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B157" s="13"/>
       <c r="C157" s="13"/>
@@ -3660,7 +3702,7 @@
     </row>
     <row r="158" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B158" s="13"/>
       <c r="C158" s="13"/>
@@ -3675,7 +3717,7 @@
     </row>
     <row r="159" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B159" s="13"/>
       <c r="C159" s="13"/>
@@ -3690,7 +3732,7 @@
     </row>
     <row r="160" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B160" s="13"/>
       <c r="C160" s="13"/>
@@ -3705,7 +3747,7 @@
     </row>
     <row r="161" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B161" s="13"/>
       <c r="C161" s="13"/>
@@ -3720,7 +3762,7 @@
     </row>
     <row r="162" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B162" s="16"/>
       <c r="C162" s="16"/>
@@ -3737,7 +3779,7 @@
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E163" s="27">
         <f>SUM(E156:E162)</f>
@@ -3752,11 +3794,11 @@
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>53.650000000000006</v>
+        <v>47.900000000000006</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -3790,7 +3832,7 @@
     </row>
     <row r="166" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B166" s="13"/>
       <c r="C166" s="13"/>
@@ -3805,7 +3847,7 @@
     </row>
     <row r="167" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B167" s="13"/>
       <c r="C167" s="13"/>
@@ -3820,7 +3862,7 @@
     </row>
     <row r="168" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B168" s="13"/>
       <c r="C168" s="13"/>
@@ -3835,7 +3877,7 @@
     </row>
     <row r="169" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B169" s="13"/>
       <c r="C169" s="13"/>
@@ -3850,7 +3892,7 @@
     </row>
     <row r="170" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B170" s="13"/>
       <c r="C170" s="13"/>
@@ -3865,7 +3907,7 @@
     </row>
     <row r="171" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B171" s="13"/>
       <c r="C171" s="13"/>
@@ -3880,7 +3922,7 @@
     </row>
     <row r="172" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B172" s="16"/>
       <c r="C172" s="16"/>
@@ -3898,7 +3940,7 @@
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E173" s="27">
         <f>SUM(E166:E172)</f>
@@ -3913,11 +3955,11 @@
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
       <c r="D174" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>53.650000000000006</v>
+        <v>47.900000000000006</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -3951,7 +3993,7 @@
     </row>
     <row r="176" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B176" s="13"/>
       <c r="C176" s="13"/>
@@ -3966,7 +4008,7 @@
     </row>
     <row r="177" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B177" s="13"/>
       <c r="C177" s="13"/>
@@ -3981,7 +4023,7 @@
     </row>
     <row r="178" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B178" s="13"/>
       <c r="C178" s="13"/>
@@ -3996,7 +4038,7 @@
     </row>
     <row r="179" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B179" s="13"/>
       <c r="C179" s="13"/>
@@ -4011,7 +4053,7 @@
     </row>
     <row r="180" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B180" s="13"/>
       <c r="C180" s="13"/>
@@ -4026,7 +4068,7 @@
     </row>
     <row r="181" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B181" s="13"/>
       <c r="C181" s="13"/>
@@ -4041,7 +4083,7 @@
     </row>
     <row r="182" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B182" s="16"/>
       <c r="C182" s="16"/>
@@ -4059,7 +4101,7 @@
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E183" s="27">
         <f>SUM(E176:E182)</f>
@@ -4074,11 +4116,11 @@
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>53.650000000000006</v>
+        <v>47.900000000000006</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
+++ b/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="154">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -478,6 +478,9 @@
   </si>
   <si>
     <t>3D Schreibtisch</t>
+  </si>
+  <si>
+    <t>Unterricht</t>
   </si>
 </sst>
 </file>
@@ -1069,7 +1072,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1080,7 +1083,7 @@
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1379,7 +1382,9 @@
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+      <c r="H16" s="12" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
@@ -1394,7 +1399,9 @@
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+      <c r="H17" s="12" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
@@ -1409,7 +1416,9 @@
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+      <c r="H18" s="12" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
@@ -1747,7 +1756,9 @@
       <c r="G36" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="H36" s="12"/>
+      <c r="H36" s="12" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
@@ -1777,7 +1788,9 @@
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
+      <c r="H38" s="12" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">

--- a/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
+++ b/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
@@ -477,10 +477,10 @@
     <t>3D Kisten</t>
   </si>
   <si>
-    <t>3D Schreibtisch</t>
-  </si>
-  <si>
     <t>Unterricht</t>
+  </si>
+  <si>
+    <t>3D Schreibtisch, 3D Fetisch Puppe</t>
   </si>
 </sst>
 </file>
@@ -1072,7 +1072,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1082,8 +1082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1383,7 +1383,7 @@
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1400,7 +1400,7 @@
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1417,7 +1417,7 @@
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1757,7 +1757,7 @@
         <v>151</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1789,7 +1789,7 @@
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1915,15 +1915,19 @@
       <c r="B46" s="13">
         <v>0.40625</v>
       </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="23"/>
+      <c r="C46" s="13">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D46" s="23">
+        <v>0.3</v>
+      </c>
       <c r="E46" s="9">
         <f>(B46-C46)*-24-D46</f>
-        <v>-9.75</v>
+        <v>6.9500000000000011</v>
       </c>
       <c r="F46" s="12"/>
       <c r="G46" s="12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H46" s="12"/>
     </row>
@@ -2026,7 +2030,7 @@
       </c>
       <c r="E53" s="21">
         <f>SUM(E46:E52)</f>
-        <v>-9.75</v>
+        <v>6.9500000000000011</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -2041,7 +2045,7 @@
       </c>
       <c r="E54" s="22">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>47.900000000000006</v>
+        <v>64.600000000000009</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -2202,7 +2206,7 @@
       </c>
       <c r="E64" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>47.900000000000006</v>
+        <v>64.600000000000009</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -2363,7 +2367,7 @@
       </c>
       <c r="E74" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>47.900000000000006</v>
+        <v>64.600000000000009</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -2524,7 +2528,7 @@
       </c>
       <c r="E84" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>47.900000000000006</v>
+        <v>64.600000000000009</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -2685,7 +2689,7 @@
       </c>
       <c r="E94" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>47.900000000000006</v>
+        <v>64.600000000000009</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -2846,7 +2850,7 @@
       </c>
       <c r="E104" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>47.900000000000006</v>
+        <v>64.600000000000009</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -3007,7 +3011,7 @@
       </c>
       <c r="E114" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>47.900000000000006</v>
+        <v>64.600000000000009</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3168,7 +3172,7 @@
       </c>
       <c r="E124" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>47.900000000000006</v>
+        <v>64.600000000000009</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3329,7 +3333,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>47.900000000000006</v>
+        <v>64.600000000000009</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3490,7 +3494,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>47.900000000000006</v>
+        <v>64.600000000000009</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3651,7 +3655,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>47.900000000000006</v>
+        <v>64.600000000000009</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3811,7 +3815,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>47.900000000000006</v>
+        <v>64.600000000000009</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -3972,7 +3976,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>47.900000000000006</v>
+        <v>64.600000000000009</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4133,7 +4137,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>47.900000000000006</v>
+        <v>64.600000000000009</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
+++ b/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="155">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -480,7 +480,10 @@
     <t>Unterricht</t>
   </si>
   <si>
-    <t>3D Schreibtisch, 3D Fetisch Puppe</t>
+    <t>3D Fetisch</t>
+  </si>
+  <si>
+    <t>3D Schreibtisch, 3D Fetisch</t>
   </si>
 </sst>
 </file>
@@ -1072,7 +1075,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1083,7 +1086,7 @@
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1913,7 +1916,7 @@
         <v>47</v>
       </c>
       <c r="B46" s="13">
-        <v>0.40625</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="C46" s="13">
         <v>0.70833333333333337</v>
@@ -1923,11 +1926,11 @@
       </c>
       <c r="E46" s="9">
         <f>(B46-C46)*-24-D46</f>
-        <v>6.9500000000000011</v>
+        <v>7.950000000000002</v>
       </c>
       <c r="F46" s="12"/>
       <c r="G46" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H46" s="12"/>
     </row>
@@ -1935,15 +1938,23 @@
       <c r="A47" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="14"/>
+      <c r="B47" s="13">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="C47" s="13">
+        <v>0.6875</v>
+      </c>
+      <c r="D47" s="14">
+        <v>0.3</v>
+      </c>
       <c r="E47" s="9">
         <f t="shared" ref="E47:E52" si="4">(B47-C47)*-24-D47</f>
-        <v>0</v>
+        <v>7.45</v>
       </c>
       <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
+      <c r="G47" s="12" t="s">
+        <v>153</v>
+      </c>
       <c r="H47" s="12"/>
     </row>
     <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2030,7 +2041,7 @@
       </c>
       <c r="E53" s="21">
         <f>SUM(E46:E52)</f>
-        <v>6.9500000000000011</v>
+        <v>15.400000000000002</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -2045,7 +2056,7 @@
       </c>
       <c r="E54" s="22">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>64.600000000000009</v>
+        <v>73.050000000000011</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -2206,7 +2217,7 @@
       </c>
       <c r="E64" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>64.600000000000009</v>
+        <v>73.050000000000011</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -2367,7 +2378,7 @@
       </c>
       <c r="E74" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>64.600000000000009</v>
+        <v>73.050000000000011</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -2528,7 +2539,7 @@
       </c>
       <c r="E84" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>64.600000000000009</v>
+        <v>73.050000000000011</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -2689,7 +2700,7 @@
       </c>
       <c r="E94" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>64.600000000000009</v>
+        <v>73.050000000000011</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -2850,7 +2861,7 @@
       </c>
       <c r="E104" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>64.600000000000009</v>
+        <v>73.050000000000011</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -3011,7 +3022,7 @@
       </c>
       <c r="E114" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>64.600000000000009</v>
+        <v>73.050000000000011</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3172,7 +3183,7 @@
       </c>
       <c r="E124" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>64.600000000000009</v>
+        <v>73.050000000000011</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3333,7 +3344,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>64.600000000000009</v>
+        <v>73.050000000000011</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3494,7 +3505,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>64.600000000000009</v>
+        <v>73.050000000000011</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3655,7 +3666,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>64.600000000000009</v>
+        <v>73.050000000000011</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3815,7 +3826,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>64.600000000000009</v>
+        <v>73.050000000000011</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -3976,7 +3987,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>64.600000000000009</v>
+        <v>73.050000000000011</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4137,7 +4148,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>64.600000000000009</v>
+        <v>73.050000000000011</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
+++ b/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="156">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -484,6 +484,9 @@
   </si>
   <si>
     <t>3D Schreibtisch, 3D Fetisch</t>
+  </si>
+  <si>
+    <t>3D Fetisch, 3D Pinnwand</t>
   </si>
 </sst>
 </file>
@@ -1075,7 +1078,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1085,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1961,15 +1964,19 @@
       <c r="A48" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="13"/>
+      <c r="B48" s="13">
+        <v>0.36458333333333331</v>
+      </c>
       <c r="C48" s="13"/>
       <c r="D48" s="14"/>
       <c r="E48" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-8.75</v>
       </c>
       <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
+      <c r="G48" s="12" t="s">
+        <v>155</v>
+      </c>
       <c r="H48" s="12"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2041,7 +2048,7 @@
       </c>
       <c r="E53" s="21">
         <f>SUM(E46:E52)</f>
-        <v>15.400000000000002</v>
+        <v>6.6500000000000021</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -2056,7 +2063,7 @@
       </c>
       <c r="E54" s="22">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>73.050000000000011</v>
+        <v>64.300000000000011</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -2217,7 +2224,7 @@
       </c>
       <c r="E64" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>73.050000000000011</v>
+        <v>64.300000000000011</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -2378,7 +2385,7 @@
       </c>
       <c r="E74" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>73.050000000000011</v>
+        <v>64.300000000000011</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -2539,7 +2546,7 @@
       </c>
       <c r="E84" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>73.050000000000011</v>
+        <v>64.300000000000011</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -2700,7 +2707,7 @@
       </c>
       <c r="E94" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>73.050000000000011</v>
+        <v>64.300000000000011</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -2861,7 +2868,7 @@
       </c>
       <c r="E104" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>73.050000000000011</v>
+        <v>64.300000000000011</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -3022,7 +3029,7 @@
       </c>
       <c r="E114" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>73.050000000000011</v>
+        <v>64.300000000000011</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3183,7 +3190,7 @@
       </c>
       <c r="E124" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>73.050000000000011</v>
+        <v>64.300000000000011</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3344,7 +3351,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>73.050000000000011</v>
+        <v>64.300000000000011</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3505,7 +3512,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>73.050000000000011</v>
+        <v>64.300000000000011</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3666,7 +3673,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>73.050000000000011</v>
+        <v>64.300000000000011</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3826,7 +3833,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>73.050000000000011</v>
+        <v>64.300000000000011</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -3987,7 +3994,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>73.050000000000011</v>
+        <v>64.300000000000011</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4148,7 +4155,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>73.050000000000011</v>
+        <v>64.300000000000011</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
+++ b/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="158">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -486,7 +486,13 @@
     <t>3D Schreibtisch, 3D Fetisch</t>
   </si>
   <si>
-    <t>3D Fetisch, 3D Pinnwand</t>
+    <t>Feiertag</t>
+  </si>
+  <si>
+    <t>Home Office</t>
+  </si>
+  <si>
+    <t>3D Fetisch, 3D Pinnwand, 3D Stifte, 3D Operationsschere</t>
   </si>
 </sst>
 </file>
@@ -1078,7 +1084,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1088,8 +1094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1254,11 +1260,11 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D9" s="14">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" si="0"/>
-        <v>8.4499999999999993</v>
+        <v>8.25</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12" t="s">
@@ -1328,7 +1334,7 @@
       </c>
       <c r="E13" s="21">
         <f>SUM(E6:E12)</f>
-        <v>37.700000000000003</v>
+        <v>37.5</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1343,7 +1349,7 @@
       </c>
       <c r="E14" s="22">
         <f>SUM(E13)</f>
-        <v>37.700000000000003</v>
+        <v>37.5</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1460,11 +1466,11 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D20" s="14">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E20" s="9">
         <f t="shared" si="1"/>
-        <v>5.45</v>
+        <v>5.25</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12" t="s">
@@ -1511,7 +1517,7 @@
       </c>
       <c r="E23" s="21">
         <f>SUM(E16:E22)</f>
-        <v>8.9500000000000011</v>
+        <v>8.75</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1526,7 +1532,7 @@
       </c>
       <c r="E24" s="22">
         <f>SUM(E13+E23)</f>
-        <v>46.650000000000006</v>
+        <v>46.25</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1711,7 +1717,7 @@
       </c>
       <c r="E34" s="22">
         <f>SUM(E13+E23+E33)</f>
-        <v>56.650000000000006</v>
+        <v>56.25</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -1882,7 +1888,7 @@
       </c>
       <c r="E44" s="22">
         <f>SUM(E13+E23+E33+E43)</f>
-        <v>57.650000000000006</v>
+        <v>57.25</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -1925,11 +1931,11 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D46" s="23">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E46" s="9">
         <f>(B46-C46)*-24-D46</f>
-        <v>7.950000000000002</v>
+        <v>7.7500000000000018</v>
       </c>
       <c r="F46" s="12"/>
       <c r="G46" s="12" t="s">
@@ -1948,11 +1954,11 @@
         <v>0.6875</v>
       </c>
       <c r="D47" s="14">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E47" s="9">
         <f t="shared" ref="E47:E52" si="4">(B47-C47)*-24-D47</f>
-        <v>7.45</v>
+        <v>7.25</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="12" t="s">
@@ -1960,22 +1966,26 @@
       </c>
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B48" s="13">
         <v>0.36458333333333331</v>
       </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="14"/>
+      <c r="C48" s="13">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D48" s="14">
+        <v>0.5</v>
+      </c>
       <c r="E48" s="9">
         <f t="shared" si="4"/>
-        <v>-8.75</v>
+        <v>6.75</v>
       </c>
       <c r="F48" s="12"/>
       <c r="G48" s="12" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H48" s="12"/>
     </row>
@@ -1992,7 +2002,9 @@
       </c>
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
+      <c r="H49" s="12" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
@@ -2007,7 +2019,9 @@
       </c>
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
+      <c r="H50" s="12" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
@@ -2048,7 +2062,7 @@
       </c>
       <c r="E53" s="21">
         <f>SUM(E46:E52)</f>
-        <v>6.6500000000000021</v>
+        <v>21.75</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -2063,7 +2077,7 @@
       </c>
       <c r="E54" s="22">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>64.300000000000011</v>
+        <v>79</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -2224,7 +2238,7 @@
       </c>
       <c r="E64" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>64.300000000000011</v>
+        <v>79</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -2385,7 +2399,7 @@
       </c>
       <c r="E74" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>64.300000000000011</v>
+        <v>79</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -2546,7 +2560,7 @@
       </c>
       <c r="E84" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>64.300000000000011</v>
+        <v>79</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -2707,7 +2721,7 @@
       </c>
       <c r="E94" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>64.300000000000011</v>
+        <v>79</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -2868,7 +2882,7 @@
       </c>
       <c r="E104" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>64.300000000000011</v>
+        <v>79</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -3029,7 +3043,7 @@
       </c>
       <c r="E114" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>64.300000000000011</v>
+        <v>79</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3190,7 +3204,7 @@
       </c>
       <c r="E124" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>64.300000000000011</v>
+        <v>79</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3351,7 +3365,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>64.300000000000011</v>
+        <v>79</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3512,7 +3526,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>64.300000000000011</v>
+        <v>79</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3673,7 +3687,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>64.300000000000011</v>
+        <v>79</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3833,7 +3847,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>64.300000000000011</v>
+        <v>79</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -3994,7 +4008,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>64.300000000000011</v>
+        <v>79</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4155,7 +4169,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>64.300000000000011</v>
+        <v>79</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
+++ b/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="158">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -484,6 +484,15 @@
   </si>
   <si>
     <t>3D Schreibtisch, 3D Fetisch</t>
+  </si>
+  <si>
+    <t>Feiertag</t>
+  </si>
+  <si>
+    <t>Home Office</t>
+  </si>
+  <si>
+    <t>3D Fetisch, 3D Pinnwand, 3D Stifte, 3D Operationsschere</t>
   </si>
 </sst>
 </file>
@@ -1085,8 +1094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1251,11 +1260,11 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D9" s="14">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" si="0"/>
-        <v>8.4499999999999993</v>
+        <v>8.25</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12" t="s">
@@ -1325,7 +1334,7 @@
       </c>
       <c r="E13" s="21">
         <f>SUM(E6:E12)</f>
-        <v>37.700000000000003</v>
+        <v>37.5</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1340,7 +1349,7 @@
       </c>
       <c r="E14" s="22">
         <f>SUM(E13)</f>
-        <v>37.700000000000003</v>
+        <v>37.5</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1457,11 +1466,11 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D20" s="14">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E20" s="9">
         <f t="shared" si="1"/>
-        <v>5.45</v>
+        <v>5.25</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12" t="s">
@@ -1508,7 +1517,7 @@
       </c>
       <c r="E23" s="21">
         <f>SUM(E16:E22)</f>
-        <v>8.9500000000000011</v>
+        <v>8.75</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1523,7 +1532,7 @@
       </c>
       <c r="E24" s="22">
         <f>SUM(E13+E23)</f>
-        <v>46.650000000000006</v>
+        <v>46.25</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1708,7 +1717,7 @@
       </c>
       <c r="E34" s="22">
         <f>SUM(E13+E23+E33)</f>
-        <v>56.650000000000006</v>
+        <v>56.25</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -1879,7 +1888,7 @@
       </c>
       <c r="E44" s="22">
         <f>SUM(E13+E23+E33+E43)</f>
-        <v>57.650000000000006</v>
+        <v>57.25</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -1922,11 +1931,11 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D46" s="23">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E46" s="9">
         <f>(B46-C46)*-24-D46</f>
-        <v>7.950000000000002</v>
+        <v>7.7500000000000018</v>
       </c>
       <c r="F46" s="12"/>
       <c r="G46" s="12" t="s">
@@ -1945,11 +1954,11 @@
         <v>0.6875</v>
       </c>
       <c r="D47" s="14">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E47" s="9">
         <f t="shared" ref="E47:E52" si="4">(B47-C47)*-24-D47</f>
-        <v>7.45</v>
+        <v>7.25</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="12" t="s">
@@ -1957,19 +1966,27 @@
       </c>
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="14"/>
+      <c r="B48" s="13">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="C48" s="13">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D48" s="14">
+        <v>0.5</v>
+      </c>
       <c r="E48" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
+      <c r="G48" s="12" t="s">
+        <v>157</v>
+      </c>
       <c r="H48" s="12"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1985,7 +2002,9 @@
       </c>
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
+      <c r="H49" s="12" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
@@ -2000,7 +2019,9 @@
       </c>
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
+      <c r="H50" s="12" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
@@ -2041,7 +2062,7 @@
       </c>
       <c r="E53" s="21">
         <f>SUM(E46:E52)</f>
-        <v>15.400000000000002</v>
+        <v>21.75</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -2056,7 +2077,7 @@
       </c>
       <c r="E54" s="22">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>73.050000000000011</v>
+        <v>79</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -2217,7 +2238,7 @@
       </c>
       <c r="E64" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>73.050000000000011</v>
+        <v>79</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -2378,7 +2399,7 @@
       </c>
       <c r="E74" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>73.050000000000011</v>
+        <v>79</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -2539,7 +2560,7 @@
       </c>
       <c r="E84" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>73.050000000000011</v>
+        <v>79</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -2700,7 +2721,7 @@
       </c>
       <c r="E94" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>73.050000000000011</v>
+        <v>79</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -2861,7 +2882,7 @@
       </c>
       <c r="E104" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>73.050000000000011</v>
+        <v>79</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -3022,7 +3043,7 @@
       </c>
       <c r="E114" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>73.050000000000011</v>
+        <v>79</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3183,7 +3204,7 @@
       </c>
       <c r="E124" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>73.050000000000011</v>
+        <v>79</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3344,7 +3365,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>73.050000000000011</v>
+        <v>79</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3505,7 +3526,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>73.050000000000011</v>
+        <v>79</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3666,7 +3687,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>73.050000000000011</v>
+        <v>79</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3826,7 +3847,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>73.050000000000011</v>
+        <v>79</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -3987,7 +4008,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>73.050000000000011</v>
+        <v>79</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4148,7 +4169,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>73.050000000000011</v>
+        <v>79</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
+++ b/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="159">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -493,6 +493,9 @@
   </si>
   <si>
     <t>3D Fetisch, 3D Pinnwand, 3D Stifte, 3D Operationsschere</t>
+  </si>
+  <si>
+    <t>3D Bürostuhl, 3D Aktenschrank</t>
   </si>
 </sst>
 </file>
@@ -1084,7 +1087,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1094,8 +1097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2010,15 +2013,23 @@
       <c r="A50" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="14"/>
+      <c r="B50" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C50" s="13">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D50" s="14">
+        <v>1</v>
+      </c>
       <c r="E50" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4.9999999999999982</v>
       </c>
       <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
+      <c r="G50" s="12" t="s">
+        <v>158</v>
+      </c>
       <c r="H50" s="12" t="s">
         <v>156</v>
       </c>
@@ -2062,7 +2073,7 @@
       </c>
       <c r="E53" s="21">
         <f>SUM(E46:E52)</f>
-        <v>21.75</v>
+        <v>26.75</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -2077,7 +2088,7 @@
       </c>
       <c r="E54" s="22">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -2238,7 +2249,7 @@
       </c>
       <c r="E64" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -2283,18 +2294,24 @@
       </c>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
+      <c r="H66" s="12" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B67" s="13"/>
+      <c r="B67" s="13">
+        <v>0.36458333333333331</v>
+      </c>
       <c r="C67" s="13"/>
-      <c r="D67" s="14"/>
+      <c r="D67" s="14">
+        <v>0.5</v>
+      </c>
       <c r="E67" s="9">
         <f t="shared" ref="E67:E72" si="6">(B67-C67)*-24-D67</f>
-        <v>0</v>
+        <v>-9.25</v>
       </c>
       <c r="F67" s="12"/>
       <c r="G67" s="12"/>
@@ -2384,7 +2401,7 @@
       </c>
       <c r="E73" s="27">
         <f>SUM(E66:E72)</f>
-        <v>0</v>
+        <v>-9.25</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -2399,7 +2416,7 @@
       </c>
       <c r="E74" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>79</v>
+        <v>74.75</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -2560,7 +2577,7 @@
       </c>
       <c r="E84" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>79</v>
+        <v>74.75</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -2721,7 +2738,7 @@
       </c>
       <c r="E94" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>79</v>
+        <v>74.75</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -2882,7 +2899,7 @@
       </c>
       <c r="E104" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>79</v>
+        <v>74.75</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -3043,7 +3060,7 @@
       </c>
       <c r="E114" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>79</v>
+        <v>74.75</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3204,7 +3221,7 @@
       </c>
       <c r="E124" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>79</v>
+        <v>74.75</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3365,7 +3382,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>79</v>
+        <v>74.75</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3526,7 +3543,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>79</v>
+        <v>74.75</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3687,7 +3704,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>79</v>
+        <v>74.75</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3847,7 +3864,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>79</v>
+        <v>74.75</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4008,7 +4025,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>79</v>
+        <v>74.75</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4169,7 +4186,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>79</v>
+        <v>74.75</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
+++ b/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="160">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -496,6 +496,9 @@
   </si>
   <si>
     <t>3D Bürostuhl, 3D Aktenschrank</t>
+  </si>
+  <si>
+    <t>3D Assets überarbeitet, UV Fetisch</t>
   </si>
 </sst>
 </file>
@@ -1087,7 +1090,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1097,8 +1100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2305,16 +2308,20 @@
       <c r="B67" s="13">
         <v>0.36458333333333331</v>
       </c>
-      <c r="C67" s="13"/>
+      <c r="C67" s="13">
+        <v>0.6875</v>
+      </c>
       <c r="D67" s="14">
         <v>0.5</v>
       </c>
       <c r="E67" s="9">
         <f t="shared" ref="E67:E72" si="6">(B67-C67)*-24-D67</f>
-        <v>-9.25</v>
+        <v>7.25</v>
       </c>
       <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
+      <c r="G67" s="12" t="s">
+        <v>159</v>
+      </c>
       <c r="H67" s="12"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2401,7 +2408,7 @@
       </c>
       <c r="E73" s="27">
         <f>SUM(E66:E72)</f>
-        <v>-9.25</v>
+        <v>7.25</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -2416,7 +2423,7 @@
       </c>
       <c r="E74" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>74.75</v>
+        <v>91.25</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -2577,7 +2584,7 @@
       </c>
       <c r="E84" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>74.75</v>
+        <v>91.25</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -2738,7 +2745,7 @@
       </c>
       <c r="E94" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>74.75</v>
+        <v>91.25</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -2899,7 +2906,7 @@
       </c>
       <c r="E104" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>74.75</v>
+        <v>91.25</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -3060,7 +3067,7 @@
       </c>
       <c r="E114" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>74.75</v>
+        <v>91.25</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3221,7 +3228,7 @@
       </c>
       <c r="E124" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>74.75</v>
+        <v>91.25</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3382,7 +3389,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>74.75</v>
+        <v>91.25</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3543,7 +3550,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>74.75</v>
+        <v>91.25</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3704,7 +3711,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>74.75</v>
+        <v>91.25</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3864,7 +3871,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>74.75</v>
+        <v>91.25</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4025,7 +4032,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>74.75</v>
+        <v>91.25</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4186,7 +4193,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>74.75</v>
+        <v>91.25</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
+++ b/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="161">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -499,6 +499,9 @@
   </si>
   <si>
     <t>3D Assets überarbeitet, UV Fetisch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3D Bücher, 3D Nadeln, Ziele </t>
   </si>
 </sst>
 </file>
@@ -1090,7 +1093,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1100,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2328,15 +2331,23 @@
       <c r="A68" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B68" s="13"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="14"/>
+      <c r="B68" s="13">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="C68" s="13">
+        <v>0.6875</v>
+      </c>
+      <c r="D68" s="14">
+        <v>0.5</v>
+      </c>
       <c r="E68" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>7.25</v>
       </c>
       <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
+      <c r="G68" s="12" t="s">
+        <v>160</v>
+      </c>
       <c r="H68" s="12"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2408,7 +2419,7 @@
       </c>
       <c r="E73" s="27">
         <f>SUM(E66:E72)</f>
-        <v>7.25</v>
+        <v>14.5</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -2423,7 +2434,7 @@
       </c>
       <c r="E74" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>91.25</v>
+        <v>98.5</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -2584,7 +2595,7 @@
       </c>
       <c r="E84" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>91.25</v>
+        <v>98.5</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -2745,7 +2756,7 @@
       </c>
       <c r="E94" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>91.25</v>
+        <v>98.5</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -2906,7 +2917,7 @@
       </c>
       <c r="E104" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>91.25</v>
+        <v>98.5</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -3067,7 +3078,7 @@
       </c>
       <c r="E114" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>91.25</v>
+        <v>98.5</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3228,7 +3239,7 @@
       </c>
       <c r="E124" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>91.25</v>
+        <v>98.5</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3389,7 +3400,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>91.25</v>
+        <v>98.5</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3550,7 +3561,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>91.25</v>
+        <v>98.5</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3711,7 +3722,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>91.25</v>
+        <v>98.5</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3871,7 +3882,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>91.25</v>
+        <v>98.5</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4032,7 +4043,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>91.25</v>
+        <v>98.5</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4193,7 +4204,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>91.25</v>
+        <v>98.5</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
+++ b/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="162">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -502,6 +502,9 @@
   </si>
   <si>
     <t xml:space="preserve">3D Bücher, 3D Nadeln, Ziele </t>
+  </si>
+  <si>
+    <t>3D Bücher, 3D Stempel</t>
   </si>
 </sst>
 </file>
@@ -1093,7 +1096,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1103,8 +1106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2354,15 +2357,21 @@
       <c r="A69" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B69" s="13"/>
+      <c r="B69" s="13">
+        <v>0.36458333333333331</v>
+      </c>
       <c r="C69" s="13"/>
-      <c r="D69" s="14"/>
+      <c r="D69" s="14">
+        <v>0.5</v>
+      </c>
       <c r="E69" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-9.25</v>
       </c>
       <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
+      <c r="G69" s="12" t="s">
+        <v>161</v>
+      </c>
       <c r="H69" s="12"/>
     </row>
     <row r="70" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2419,7 +2428,7 @@
       </c>
       <c r="E73" s="27">
         <f>SUM(E66:E72)</f>
-        <v>14.5</v>
+        <v>5.25</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -2434,7 +2443,7 @@
       </c>
       <c r="E74" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>98.5</v>
+        <v>89.25</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -2595,7 +2604,7 @@
       </c>
       <c r="E84" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>98.5</v>
+        <v>89.25</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -2756,7 +2765,7 @@
       </c>
       <c r="E94" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>98.5</v>
+        <v>89.25</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -2917,7 +2926,7 @@
       </c>
       <c r="E104" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>98.5</v>
+        <v>89.25</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -3078,7 +3087,7 @@
       </c>
       <c r="E114" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>98.5</v>
+        <v>89.25</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3239,7 +3248,7 @@
       </c>
       <c r="E124" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>98.5</v>
+        <v>89.25</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3400,7 +3409,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>98.5</v>
+        <v>89.25</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3561,7 +3570,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>98.5</v>
+        <v>89.25</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3722,7 +3731,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>98.5</v>
+        <v>89.25</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3882,7 +3891,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>98.5</v>
+        <v>89.25</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4043,7 +4052,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>98.5</v>
+        <v>89.25</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4204,7 +4213,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>98.5</v>
+        <v>89.25</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
+++ b/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="163">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -505,6 +505,9 @@
   </si>
   <si>
     <t>3D Bücher, 3D Stempel</t>
+  </si>
+  <si>
+    <t>3D Pinzetten, 3D Fadentrenner</t>
   </si>
 </sst>
 </file>
@@ -1096,7 +1099,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1106,8 +1109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2360,13 +2363,15 @@
       <c r="B69" s="13">
         <v>0.36458333333333331</v>
       </c>
-      <c r="C69" s="13"/>
+      <c r="C69" s="13">
+        <v>0.6875</v>
+      </c>
       <c r="D69" s="14">
         <v>0.5</v>
       </c>
       <c r="E69" s="9">
         <f t="shared" si="6"/>
-        <v>-9.25</v>
+        <v>7.25</v>
       </c>
       <c r="F69" s="12"/>
       <c r="G69" s="12" t="s">
@@ -2385,7 +2390,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F70" s="12"/>
+      <c r="F70" s="12" t="s">
+        <v>145</v>
+      </c>
       <c r="G70" s="12"/>
       <c r="H70" s="12"/>
     </row>
@@ -2428,7 +2435,7 @@
       </c>
       <c r="E73" s="27">
         <f>SUM(E66:E72)</f>
-        <v>5.25</v>
+        <v>21.75</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -2443,7 +2450,7 @@
       </c>
       <c r="E74" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>89.25</v>
+        <v>105.75</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -2604,7 +2611,7 @@
       </c>
       <c r="E84" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>89.25</v>
+        <v>105.75</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -2640,15 +2647,23 @@
       <c r="A86" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="23"/>
+      <c r="B86" s="13">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="C86" s="13">
+        <v>0.6875</v>
+      </c>
+      <c r="D86" s="23">
+        <v>1</v>
+      </c>
       <c r="E86" s="9">
         <f>(B86-C86)*-24-D86</f>
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="F86" s="12"/>
-      <c r="G86" s="12"/>
+      <c r="G86" s="12" t="s">
+        <v>162</v>
+      </c>
       <c r="H86" s="12"/>
     </row>
     <row r="87" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2750,7 +2765,7 @@
       </c>
       <c r="E93" s="27">
         <f>SUM(E86:E92)</f>
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
@@ -2765,7 +2780,7 @@
       </c>
       <c r="E94" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>89.25</v>
+        <v>112.5</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -2926,7 +2941,7 @@
       </c>
       <c r="E104" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>89.25</v>
+        <v>112.5</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -3087,7 +3102,7 @@
       </c>
       <c r="E114" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>89.25</v>
+        <v>112.5</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3248,7 +3263,7 @@
       </c>
       <c r="E124" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>89.25</v>
+        <v>112.5</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3409,7 +3424,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>89.25</v>
+        <v>112.5</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3570,7 +3585,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>89.25</v>
+        <v>112.5</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3731,7 +3746,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>89.25</v>
+        <v>112.5</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3891,7 +3906,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>89.25</v>
+        <v>112.5</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4052,7 +4067,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>89.25</v>
+        <v>112.5</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4213,7 +4228,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>89.25</v>
+        <v>112.5</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
+++ b/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
@@ -1099,7 +1099,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1109,8 +1109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2670,12 +2670,16 @@
       <c r="A87" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
+      <c r="B87" s="13">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C87" s="13">
+        <v>0.6875</v>
+      </c>
       <c r="D87" s="14"/>
       <c r="E87" s="9">
         <f t="shared" ref="E87:E92" si="8">(B87-C87)*-24-D87</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F87" s="12"/>
       <c r="G87" s="12"/>
@@ -2765,7 +2769,7 @@
       </c>
       <c r="E93" s="27">
         <f>SUM(E86:E92)</f>
-        <v>6.75</v>
+        <v>13.75</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
@@ -2780,7 +2784,7 @@
       </c>
       <c r="E94" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>112.5</v>
+        <v>119.5</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -2941,7 +2945,7 @@
       </c>
       <c r="E104" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>112.5</v>
+        <v>119.5</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -3102,7 +3106,7 @@
       </c>
       <c r="E114" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>112.5</v>
+        <v>119.5</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3263,7 +3267,7 @@
       </c>
       <c r="E124" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>112.5</v>
+        <v>119.5</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3424,7 +3428,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>112.5</v>
+        <v>119.5</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3585,7 +3589,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>112.5</v>
+        <v>119.5</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3746,7 +3750,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>112.5</v>
+        <v>119.5</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3906,7 +3910,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>112.5</v>
+        <v>119.5</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4067,7 +4071,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>112.5</v>
+        <v>119.5</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4228,7 +4232,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>112.5</v>
+        <v>119.5</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
+++ b/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="164">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -508,6 +508,9 @@
   </si>
   <si>
     <t>3D Pinzetten, 3D Fadentrenner</t>
+  </si>
+  <si>
+    <t>3D Brieföffner, 3D Tacker</t>
   </si>
 </sst>
 </file>
@@ -1099,7 +1102,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1109,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2676,13 +2679,17 @@
       <c r="C87" s="13">
         <v>0.6875</v>
       </c>
-      <c r="D87" s="14"/>
+      <c r="D87" s="14">
+        <v>1</v>
+      </c>
       <c r="E87" s="9">
         <f t="shared" ref="E87:E92" si="8">(B87-C87)*-24-D87</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F87" s="12"/>
-      <c r="G87" s="12"/>
+      <c r="G87" s="12" t="s">
+        <v>163</v>
+      </c>
       <c r="H87" s="12"/>
     </row>
     <row r="88" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2769,7 +2776,7 @@
       </c>
       <c r="E93" s="27">
         <f>SUM(E86:E92)</f>
-        <v>13.75</v>
+        <v>12.75</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
@@ -2784,7 +2791,7 @@
       </c>
       <c r="E94" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>119.5</v>
+        <v>118.5</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -2945,7 +2952,7 @@
       </c>
       <c r="E104" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>119.5</v>
+        <v>118.5</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -3106,7 +3113,7 @@
       </c>
       <c r="E114" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>119.5</v>
+        <v>118.5</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3267,7 +3274,7 @@
       </c>
       <c r="E124" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>119.5</v>
+        <v>118.5</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3428,7 +3435,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>119.5</v>
+        <v>118.5</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3589,7 +3596,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>119.5</v>
+        <v>118.5</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3750,7 +3757,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>119.5</v>
+        <v>118.5</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3910,7 +3917,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>119.5</v>
+        <v>118.5</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4071,7 +4078,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>119.5</v>
+        <v>118.5</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4232,7 +4239,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>119.5</v>
+        <v>118.5</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
+++ b/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
@@ -1102,7 +1102,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1113,7 +1113,7 @@
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="G88" sqref="G88"/>
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2696,12 +2696,14 @@
       <c r="A88" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B88" s="13"/>
+      <c r="B88" s="13">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="C88" s="13"/>
       <c r="D88" s="14"/>
       <c r="E88" s="9">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="F88" s="12"/>
       <c r="G88" s="12"/>
@@ -2776,7 +2778,7 @@
       </c>
       <c r="E93" s="27">
         <f>SUM(E86:E92)</f>
-        <v>12.75</v>
+        <v>4.75</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
@@ -2791,7 +2793,7 @@
       </c>
       <c r="E94" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>118.5</v>
+        <v>110.5</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -2952,7 +2954,7 @@
       </c>
       <c r="E104" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>118.5</v>
+        <v>110.5</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -3113,7 +3115,7 @@
       </c>
       <c r="E114" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>118.5</v>
+        <v>110.5</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3274,7 +3276,7 @@
       </c>
       <c r="E124" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>118.5</v>
+        <v>110.5</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3435,7 +3437,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>118.5</v>
+        <v>110.5</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3596,7 +3598,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>118.5</v>
+        <v>110.5</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3757,7 +3759,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>118.5</v>
+        <v>110.5</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3917,7 +3919,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>118.5</v>
+        <v>110.5</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4078,7 +4080,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>118.5</v>
+        <v>110.5</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4239,7 +4241,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>118.5</v>
+        <v>110.5</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
+++ b/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="165">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -511,6 +511,9 @@
   </si>
   <si>
     <t>3D Brieföffner, 3D Tacker</t>
+  </si>
+  <si>
+    <t>3D Kiste, 3D Ordner, Assetliste überarbeitet</t>
   </si>
 </sst>
 </file>
@@ -1102,7 +1105,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1113,7 +1116,7 @@
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2699,26 +2702,34 @@
       <c r="B88" s="13">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C88" s="13"/>
-      <c r="D88" s="14"/>
+      <c r="C88" s="13">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D88" s="14">
+        <v>1</v>
+      </c>
       <c r="E88" s="9">
         <f t="shared" si="8"/>
-        <v>-8</v>
+        <v>6.5000000000000018</v>
       </c>
       <c r="F88" s="12"/>
-      <c r="G88" s="12"/>
+      <c r="G88" s="12" t="s">
+        <v>164</v>
+      </c>
       <c r="H88" s="12"/>
     </row>
     <row r="89" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B89" s="13"/>
+      <c r="B89" s="13">
+        <v>0.40625</v>
+      </c>
       <c r="C89" s="13"/>
       <c r="D89" s="14"/>
       <c r="E89" s="9">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-9.75</v>
       </c>
       <c r="F89" s="12"/>
       <c r="G89" s="12"/>
@@ -2778,7 +2789,7 @@
       </c>
       <c r="E93" s="27">
         <f>SUM(E86:E92)</f>
-        <v>4.75</v>
+        <v>9.5</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
@@ -2793,7 +2804,7 @@
       </c>
       <c r="E94" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>110.5</v>
+        <v>115.25</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -2954,7 +2965,7 @@
       </c>
       <c r="E104" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>110.5</v>
+        <v>115.25</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -3115,7 +3126,7 @@
       </c>
       <c r="E114" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>110.5</v>
+        <v>115.25</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3276,7 +3287,7 @@
       </c>
       <c r="E124" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>110.5</v>
+        <v>115.25</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3437,7 +3448,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>110.5</v>
+        <v>115.25</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3598,7 +3609,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>110.5</v>
+        <v>115.25</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3759,7 +3770,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>110.5</v>
+        <v>115.25</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3919,7 +3930,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>110.5</v>
+        <v>115.25</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4080,7 +4091,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>110.5</v>
+        <v>115.25</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4241,7 +4252,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>110.5</v>
+        <v>115.25</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
+++ b/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="166">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -514,6 +514,9 @@
   </si>
   <si>
     <t>3D Kiste, 3D Ordner, Assetliste überarbeitet</t>
+  </si>
+  <si>
+    <t>3D Wandkalender, 3D Notizzettel, 3D Foto</t>
   </si>
 </sst>
 </file>
@@ -1105,7 +1108,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1116,7 +1119,7 @@
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+      <selection activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2725,14 +2728,20 @@
       <c r="B89" s="13">
         <v>0.40625</v>
       </c>
-      <c r="C89" s="13"/>
-      <c r="D89" s="14"/>
+      <c r="C89" s="13">
+        <v>0.6875</v>
+      </c>
+      <c r="D89" s="14">
+        <v>1</v>
+      </c>
       <c r="E89" s="9">
         <f t="shared" si="8"/>
-        <v>-9.75</v>
+        <v>5.75</v>
       </c>
       <c r="F89" s="12"/>
-      <c r="G89" s="12"/>
+      <c r="G89" s="12" t="s">
+        <v>165</v>
+      </c>
       <c r="H89" s="12"/>
     </row>
     <row r="90" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2789,7 +2798,7 @@
       </c>
       <c r="E93" s="27">
         <f>SUM(E86:E92)</f>
-        <v>9.5</v>
+        <v>25</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
@@ -2804,7 +2813,7 @@
       </c>
       <c r="E94" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>115.25</v>
+        <v>130.75</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -2965,7 +2974,7 @@
       </c>
       <c r="E104" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>115.25</v>
+        <v>130.75</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -3126,7 +3135,7 @@
       </c>
       <c r="E114" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>115.25</v>
+        <v>130.75</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3287,7 +3296,7 @@
       </c>
       <c r="E124" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>115.25</v>
+        <v>130.75</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3448,7 +3457,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>115.25</v>
+        <v>130.75</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3609,7 +3618,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>115.25</v>
+        <v>130.75</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3770,7 +3779,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>115.25</v>
+        <v>130.75</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3930,7 +3939,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>115.25</v>
+        <v>130.75</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4091,7 +4100,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>115.25</v>
+        <v>130.75</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4252,7 +4261,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>115.25</v>
+        <v>130.75</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
+++ b/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
@@ -1108,7 +1108,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1119,7 +1119,7 @@
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="G90" sqref="G90"/>
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2748,12 +2748,14 @@
       <c r="A90" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B90" s="13"/>
+      <c r="B90" s="13">
+        <v>0.36458333333333331</v>
+      </c>
       <c r="C90" s="13"/>
       <c r="D90" s="14"/>
       <c r="E90" s="9">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-8.75</v>
       </c>
       <c r="F90" s="12"/>
       <c r="G90" s="12"/>
@@ -2798,7 +2800,7 @@
       </c>
       <c r="E93" s="27">
         <f>SUM(E86:E92)</f>
-        <v>25</v>
+        <v>16.25</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
@@ -2813,7 +2815,7 @@
       </c>
       <c r="E94" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>130.75</v>
+        <v>122</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -2974,7 +2976,7 @@
       </c>
       <c r="E104" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>130.75</v>
+        <v>122</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -3135,7 +3137,7 @@
       </c>
       <c r="E114" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>130.75</v>
+        <v>122</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3296,7 +3298,7 @@
       </c>
       <c r="E124" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>130.75</v>
+        <v>122</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3457,7 +3459,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>130.75</v>
+        <v>122</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3618,7 +3620,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>130.75</v>
+        <v>122</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3779,7 +3781,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>130.75</v>
+        <v>122</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3939,7 +3941,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>130.75</v>
+        <v>122</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4100,7 +4102,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>130.75</v>
+        <v>122</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4261,7 +4263,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>130.75</v>
+        <v>122</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
+++ b/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="167">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -517,6 +517,9 @@
   </si>
   <si>
     <t>3D Wandkalender, 3D Notizzettel, 3D Foto</t>
+  </si>
+  <si>
+    <t>3D Foto, 3D Ordner</t>
   </si>
 </sst>
 </file>
@@ -1108,7 +1111,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1119,7 +1122,7 @@
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+      <selection activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2751,14 +2754,20 @@
       <c r="B90" s="13">
         <v>0.36458333333333331</v>
       </c>
-      <c r="C90" s="13"/>
-      <c r="D90" s="14"/>
+      <c r="C90" s="13">
+        <v>0.6875</v>
+      </c>
+      <c r="D90" s="14">
+        <v>1</v>
+      </c>
       <c r="E90" s="9">
         <f t="shared" si="8"/>
-        <v>-8.75</v>
+        <v>6.75</v>
       </c>
       <c r="F90" s="12"/>
-      <c r="G90" s="12"/>
+      <c r="G90" s="12" t="s">
+        <v>166</v>
+      </c>
       <c r="H90" s="12"/>
     </row>
     <row r="91" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2800,7 +2809,7 @@
       </c>
       <c r="E93" s="27">
         <f>SUM(E86:E92)</f>
-        <v>16.25</v>
+        <v>31.75</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
@@ -2815,7 +2824,7 @@
       </c>
       <c r="E94" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>122</v>
+        <v>137.5</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -2976,7 +2985,7 @@
       </c>
       <c r="E104" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>122</v>
+        <v>137.5</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -3137,7 +3146,7 @@
       </c>
       <c r="E114" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>122</v>
+        <v>137.5</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3298,7 +3307,7 @@
       </c>
       <c r="E124" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>122</v>
+        <v>137.5</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3459,7 +3468,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>122</v>
+        <v>137.5</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3620,7 +3629,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>122</v>
+        <v>137.5</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3781,7 +3790,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>122</v>
+        <v>137.5</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3941,7 +3950,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>122</v>
+        <v>137.5</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4102,7 +4111,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>122</v>
+        <v>137.5</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4263,7 +4272,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>122</v>
+        <v>137.5</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
+++ b/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
@@ -1111,7 +1111,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1121,8 +1121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="G91" sqref="G91"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3021,12 +3021,14 @@
       <c r="A106" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B106" s="13"/>
+      <c r="B106" s="13">
+        <v>0.36458333333333331</v>
+      </c>
       <c r="C106" s="13"/>
       <c r="D106" s="23"/>
       <c r="E106" s="9">
         <f>(B106-C106)*-24-D106</f>
-        <v>0</v>
+        <v>-8.75</v>
       </c>
       <c r="F106" s="12"/>
       <c r="G106" s="12"/>
@@ -3131,7 +3133,7 @@
       </c>
       <c r="E113" s="27">
         <f>SUM(E106:E112)</f>
-        <v>0</v>
+        <v>-8.75</v>
       </c>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
@@ -3146,7 +3148,7 @@
       </c>
       <c r="E114" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>137.5</v>
+        <v>128.75</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3307,7 +3309,7 @@
       </c>
       <c r="E124" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>137.5</v>
+        <v>128.75</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3468,7 +3470,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>137.5</v>
+        <v>128.75</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3629,7 +3631,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>137.5</v>
+        <v>128.75</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3790,7 +3792,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>137.5</v>
+        <v>128.75</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3950,7 +3952,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>137.5</v>
+        <v>128.75</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4111,7 +4113,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>137.5</v>
+        <v>128.75</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4272,7 +4274,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>137.5</v>
+        <v>128.75</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
+++ b/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="168">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -520,6 +520,9 @@
   </si>
   <si>
     <t>3D Foto, 3D Ordner</t>
+  </si>
+  <si>
+    <t>Assets überarbeitet, 3D Vergrößerungsglas</t>
   </si>
 </sst>
 </file>
@@ -1111,7 +1114,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1122,7 +1125,7 @@
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D106" sqref="D106"/>
+      <selection activeCell="G108" sqref="G108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3024,14 +3027,20 @@
       <c r="B106" s="13">
         <v>0.36458333333333331</v>
       </c>
-      <c r="C106" s="13"/>
-      <c r="D106" s="23"/>
+      <c r="C106" s="13">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D106" s="23">
+        <v>1</v>
+      </c>
       <c r="E106" s="9">
         <f>(B106-C106)*-24-D106</f>
-        <v>-8.75</v>
+        <v>6.25</v>
       </c>
       <c r="F106" s="12"/>
-      <c r="G106" s="12"/>
+      <c r="G106" s="12" t="s">
+        <v>167</v>
+      </c>
       <c r="H106" s="12"/>
     </row>
     <row r="107" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3133,7 +3142,7 @@
       </c>
       <c r="E113" s="27">
         <f>SUM(E106:E112)</f>
-        <v>-8.75</v>
+        <v>6.25</v>
       </c>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
@@ -3148,7 +3157,7 @@
       </c>
       <c r="E114" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>128.75</v>
+        <v>143.75</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3309,7 +3318,7 @@
       </c>
       <c r="E124" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>128.75</v>
+        <v>143.75</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3470,7 +3479,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>128.75</v>
+        <v>143.75</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3631,7 +3640,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>128.75</v>
+        <v>143.75</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3792,7 +3801,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>128.75</v>
+        <v>143.75</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3952,7 +3961,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>128.75</v>
+        <v>143.75</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4113,7 +4122,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>128.75</v>
+        <v>143.75</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4274,7 +4283,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>128.75</v>
+        <v>143.75</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
+++ b/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
@@ -1114,7 +1114,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1125,7 +1125,7 @@
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="G108" sqref="G108"/>
+      <selection activeCell="F107" sqref="F107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3047,12 +3047,18 @@
       <c r="A107" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="14"/>
+      <c r="B107" s="13">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="C107" s="13">
+        <v>0.6875</v>
+      </c>
+      <c r="D107" s="14">
+        <v>1</v>
+      </c>
       <c r="E107" s="9">
         <f t="shared" ref="E107:E112" si="10">(B107-C107)*-24-D107</f>
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="F107" s="12"/>
       <c r="G107" s="12"/>
@@ -3142,7 +3148,7 @@
       </c>
       <c r="E113" s="27">
         <f>SUM(E106:E112)</f>
-        <v>6.25</v>
+        <v>13</v>
       </c>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
@@ -3157,7 +3163,7 @@
       </c>
       <c r="E114" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>143.75</v>
+        <v>150.5</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3318,7 +3324,7 @@
       </c>
       <c r="E124" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>143.75</v>
+        <v>150.5</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3479,7 +3485,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>143.75</v>
+        <v>150.5</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3640,7 +3646,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>143.75</v>
+        <v>150.5</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3801,7 +3807,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>143.75</v>
+        <v>150.5</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3961,7 +3967,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>143.75</v>
+        <v>150.5</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4122,7 +4128,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>143.75</v>
+        <v>150.5</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4283,7 +4289,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>143.75</v>
+        <v>150.5</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
+++ b/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="169">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -523,6 +523,9 @@
   </si>
   <si>
     <t>Assets überarbeitet, 3D Vergrößerungsglas</t>
+  </si>
+  <si>
+    <t>Assetliste, 3D Rührstab, 3D Schemel</t>
   </si>
 </sst>
 </file>
@@ -1114,7 +1117,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1125,7 +1128,7 @@
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="F107" sqref="F107"/>
+      <selection activeCell="J107" sqref="J107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3061,7 +3064,9 @@
         <v>6.75</v>
       </c>
       <c r="F107" s="12"/>
-      <c r="G107" s="12"/>
+      <c r="G107" s="12" t="s">
+        <v>168</v>
+      </c>
       <c r="H107" s="12"/>
     </row>
     <row r="108" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
+++ b/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="168">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -523,9 +523,6 @@
   </si>
   <si>
     <t>Assets überarbeitet, 3D Vergrößerungsglas</t>
-  </si>
-  <si>
-    <t>Assetliste, 3D Rührstab, 3D Schemel</t>
   </si>
 </sst>
 </file>
@@ -1117,7 +1114,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1128,7 +1125,7 @@
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="J107" sqref="J107"/>
+      <selection activeCell="F107" sqref="F107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3064,9 +3061,7 @@
         <v>6.75</v>
       </c>
       <c r="F107" s="12"/>
-      <c r="G107" s="12" t="s">
-        <v>168</v>
-      </c>
+      <c r="G107" s="12"/>
       <c r="H107" s="12"/>
     </row>
     <row r="108" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
+++ b/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="170">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -526,6 +526,9 @@
   </si>
   <si>
     <t>Assetliste, 3D Rührstab, 3D Schemel</t>
+  </si>
+  <si>
+    <t>Assets überarbeitet</t>
   </si>
 </sst>
 </file>
@@ -1117,7 +1120,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1127,8 +1130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="J107" sqref="J107"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="G110" sqref="G110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3073,15 +3076,23 @@
       <c r="A108" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B108" s="13"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="14"/>
+      <c r="B108" s="13">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="C108" s="13">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D108" s="14">
+        <v>0.5</v>
+      </c>
       <c r="E108" s="9">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>6.2500000000000018</v>
       </c>
       <c r="F108" s="12"/>
-      <c r="G108" s="12"/>
+      <c r="G108" s="12" t="s">
+        <v>169</v>
+      </c>
       <c r="H108" s="12"/>
     </row>
     <row r="109" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3153,7 +3164,7 @@
       </c>
       <c r="E113" s="27">
         <f>SUM(E106:E112)</f>
-        <v>13</v>
+        <v>19.25</v>
       </c>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
@@ -3168,7 +3179,7 @@
       </c>
       <c r="E114" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>150.5</v>
+        <v>156.75</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3329,7 +3340,7 @@
       </c>
       <c r="E124" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>150.5</v>
+        <v>156.75</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3490,7 +3501,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>150.5</v>
+        <v>156.75</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3651,7 +3662,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>150.5</v>
+        <v>156.75</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3812,7 +3823,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>150.5</v>
+        <v>156.75</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3972,7 +3983,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>150.5</v>
+        <v>156.75</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4133,7 +4144,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>150.5</v>
+        <v>156.75</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4294,7 +4305,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>150.5</v>
+        <v>156.75</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
+++ b/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="171">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -529,6 +529,9 @@
   </si>
   <si>
     <t>Assets überarbeitet</t>
+  </si>
+  <si>
+    <t>3D Experimentiertisch, 3D Garn</t>
   </si>
 </sst>
 </file>
@@ -1120,7 +1123,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3099,15 +3102,23 @@
       <c r="A109" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B109" s="13"/>
-      <c r="C109" s="13"/>
-      <c r="D109" s="14"/>
+      <c r="B109" s="13">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="C109" s="13">
+        <v>0.6875</v>
+      </c>
+      <c r="D109" s="14">
+        <v>1</v>
+      </c>
       <c r="E109" s="9">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="F109" s="12"/>
-      <c r="G109" s="12"/>
+      <c r="G109" s="12" t="s">
+        <v>170</v>
+      </c>
       <c r="H109" s="12"/>
     </row>
     <row r="110" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3164,7 +3175,7 @@
       </c>
       <c r="E113" s="27">
         <f>SUM(E106:E112)</f>
-        <v>19.25</v>
+        <v>26</v>
       </c>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
@@ -3179,7 +3190,7 @@
       </c>
       <c r="E114" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>156.75</v>
+        <v>163.5</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3340,7 +3351,7 @@
       </c>
       <c r="E124" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>156.75</v>
+        <v>163.5</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3501,7 +3512,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>156.75</v>
+        <v>163.5</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3662,7 +3673,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>156.75</v>
+        <v>163.5</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3823,7 +3834,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>156.75</v>
+        <v>163.5</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3983,7 +3994,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>156.75</v>
+        <v>163.5</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4144,7 +4155,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>156.75</v>
+        <v>163.5</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4305,7 +4316,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>156.75</v>
+        <v>163.5</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
+++ b/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="173">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -532,6 +532,12 @@
   </si>
   <si>
     <t>3D Experimentiertisch, 3D Garn</t>
+  </si>
+  <si>
+    <t>3D Bunsen Brenner, 3D Schale, 3D Radio</t>
+  </si>
+  <si>
+    <t>UV's überarbeitet</t>
   </si>
 </sst>
 </file>
@@ -1123,7 +1129,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1133,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="G110" sqref="G110"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="G131" sqref="G131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3125,16 +3131,26 @@
       <c r="A110" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B110" s="13"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="14"/>
+      <c r="B110" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C110" s="13">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D110" s="14">
+        <v>1</v>
+      </c>
       <c r="E110" s="9">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F110" s="12"/>
-      <c r="G110" s="12"/>
-      <c r="H110" s="12"/>
+      <c r="G110" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="H110" s="12" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="111" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
@@ -3175,7 +3191,7 @@
       </c>
       <c r="E113" s="27">
         <f>SUM(E106:E112)</f>
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
@@ -3190,7 +3206,7 @@
       </c>
       <c r="E114" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>163.5</v>
+        <v>169.5</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3351,7 +3367,7 @@
       </c>
       <c r="E124" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>163.5</v>
+        <v>169.5</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3387,15 +3403,21 @@
       <c r="A126" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="B126" s="13"/>
+      <c r="B126" s="13">
+        <v>0.38541666666666669</v>
+      </c>
       <c r="C126" s="13"/>
-      <c r="D126" s="23"/>
+      <c r="D126" s="23">
+        <v>0.5</v>
+      </c>
       <c r="E126" s="9">
         <f>(B126-C126)*-24-D126</f>
-        <v>0</v>
+        <v>-9.75</v>
       </c>
       <c r="F126" s="12"/>
-      <c r="G126" s="12"/>
+      <c r="G126" s="12" t="s">
+        <v>172</v>
+      </c>
       <c r="H126" s="12"/>
     </row>
     <row r="127" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3497,7 +3519,7 @@
       </c>
       <c r="E133" s="27">
         <f>SUM(E126:E132)</f>
-        <v>0</v>
+        <v>-9.75</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
@@ -3512,7 +3534,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>163.5</v>
+        <v>159.75</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3673,7 +3695,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>163.5</v>
+        <v>159.75</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3834,7 +3856,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>163.5</v>
+        <v>159.75</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3994,7 +4016,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>163.5</v>
+        <v>159.75</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4155,7 +4177,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>163.5</v>
+        <v>159.75</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4316,7 +4338,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>163.5</v>
+        <v>159.75</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
+++ b/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
@@ -1129,7 +1129,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1139,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="G131" sqref="G131"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3406,13 +3406,15 @@
       <c r="B126" s="13">
         <v>0.38541666666666669</v>
       </c>
-      <c r="C126" s="13"/>
+      <c r="C126" s="13">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="D126" s="23">
         <v>0.5</v>
       </c>
       <c r="E126" s="9">
         <f>(B126-C126)*-24-D126</f>
-        <v>-9.75</v>
+        <v>7.25</v>
       </c>
       <c r="F126" s="12"/>
       <c r="G126" s="12" t="s">
@@ -3519,7 +3521,7 @@
       </c>
       <c r="E133" s="27">
         <f>SUM(E126:E132)</f>
-        <v>-9.75</v>
+        <v>7.25</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
@@ -3534,7 +3536,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>159.75</v>
+        <v>176.75</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3695,7 +3697,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>159.75</v>
+        <v>176.75</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3856,7 +3858,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>159.75</v>
+        <v>176.75</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -4016,7 +4018,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>159.75</v>
+        <v>176.75</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4177,7 +4179,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>159.75</v>
+        <v>176.75</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4338,7 +4340,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>159.75</v>
+        <v>176.75</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
+++ b/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="173">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -1129,7 +1129,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1140,7 +1140,7 @@
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="D126" sqref="D126"/>
+      <selection activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3435,18 +3435,22 @@
       </c>
       <c r="F127" s="12"/>
       <c r="G127" s="12"/>
-      <c r="H127" s="12"/>
+      <c r="H127" s="12" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="128" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="B128" s="13"/>
+      <c r="B128" s="13">
+        <v>0.35416666666666669</v>
+      </c>
       <c r="C128" s="13"/>
       <c r="D128" s="14"/>
       <c r="E128" s="9">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-8.5</v>
       </c>
       <c r="F128" s="12"/>
       <c r="G128" s="12"/>
@@ -3521,7 +3525,7 @@
       </c>
       <c r="E133" s="27">
         <f>SUM(E126:E132)</f>
-        <v>7.25</v>
+        <v>-1.25</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
@@ -3536,7 +3540,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>176.75</v>
+        <v>168.25</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3697,7 +3701,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>176.75</v>
+        <v>168.25</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3858,7 +3862,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>176.75</v>
+        <v>168.25</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -4018,7 +4022,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>176.75</v>
+        <v>168.25</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4179,7 +4183,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>176.75</v>
+        <v>168.25</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4340,7 +4344,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>176.75</v>
+        <v>168.25</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
+++ b/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="174">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -538,6 +538,9 @@
   </si>
   <si>
     <t>UV's überarbeitet</t>
+  </si>
+  <si>
+    <t>UV's überarbeitet,  3D OP Lampe</t>
   </si>
 </sst>
 </file>
@@ -1129,7 +1132,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1140,7 +1143,7 @@
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="C129" sqref="C129"/>
+      <selection activeCell="G130" sqref="G130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3446,14 +3449,20 @@
       <c r="B128" s="13">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C128" s="13"/>
-      <c r="D128" s="14"/>
+      <c r="C128" s="13">
+        <v>0.6875</v>
+      </c>
+      <c r="D128" s="14">
+        <v>1</v>
+      </c>
       <c r="E128" s="9">
         <f t="shared" si="12"/>
-        <v>-8.5</v>
+        <v>7</v>
       </c>
       <c r="F128" s="12"/>
-      <c r="G128" s="12"/>
+      <c r="G128" s="12" t="s">
+        <v>173</v>
+      </c>
       <c r="H128" s="12"/>
     </row>
     <row r="129" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3525,7 +3534,7 @@
       </c>
       <c r="E133" s="27">
         <f>SUM(E126:E132)</f>
-        <v>-1.25</v>
+        <v>14.25</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
@@ -3540,7 +3549,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>168.25</v>
+        <v>183.75</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3701,7 +3710,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>168.25</v>
+        <v>183.75</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3862,7 +3871,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>168.25</v>
+        <v>183.75</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -4022,7 +4031,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>168.25</v>
+        <v>183.75</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4183,7 +4192,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>168.25</v>
+        <v>183.75</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4344,7 +4353,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>168.25</v>
+        <v>183.75</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
+++ b/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="175">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -541,6 +541,9 @@
   </si>
   <si>
     <t>UV's überarbeitet,  3D OP Lampe</t>
+  </si>
+  <si>
+    <t>3D OP Lampe</t>
   </si>
 </sst>
 </file>
@@ -1132,7 +1135,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3469,15 +3472,19 @@
       <c r="A129" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="B129" s="13"/>
+      <c r="B129" s="13">
+        <v>0.39583333333333331</v>
+      </c>
       <c r="C129" s="13"/>
       <c r="D129" s="14"/>
       <c r="E129" s="9">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-9.5</v>
       </c>
       <c r="F129" s="12"/>
-      <c r="G129" s="12"/>
+      <c r="G129" s="12" t="s">
+        <v>174</v>
+      </c>
       <c r="H129" s="12"/>
     </row>
     <row r="130" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3534,7 +3541,7 @@
       </c>
       <c r="E133" s="27">
         <f>SUM(E126:E132)</f>
-        <v>14.25</v>
+        <v>4.75</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
@@ -3549,7 +3556,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>183.75</v>
+        <v>174.25</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3710,7 +3717,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>183.75</v>
+        <v>174.25</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3871,7 +3878,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>183.75</v>
+        <v>174.25</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -4031,7 +4038,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>183.75</v>
+        <v>174.25</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4192,7 +4199,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>183.75</v>
+        <v>174.25</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4353,7 +4360,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>183.75</v>
+        <v>174.25</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
+++ b/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="174">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -541,9 +541,6 @@
   </si>
   <si>
     <t>UV's überarbeitet,  3D OP Lampe</t>
-  </si>
-  <si>
-    <t>3D OP Lampe</t>
   </si>
 </sst>
 </file>
@@ -1135,7 +1132,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3472,19 +3469,15 @@
       <c r="A129" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="B129" s="13">
-        <v>0.39583333333333331</v>
-      </c>
+      <c r="B129" s="13"/>
       <c r="C129" s="13"/>
       <c r="D129" s="14"/>
       <c r="E129" s="9">
         <f t="shared" si="12"/>
-        <v>-9.5</v>
+        <v>0</v>
       </c>
       <c r="F129" s="12"/>
-      <c r="G129" s="12" t="s">
-        <v>174</v>
-      </c>
+      <c r="G129" s="12"/>
       <c r="H129" s="12"/>
     </row>
     <row r="130" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3541,7 +3534,7 @@
       </c>
       <c r="E133" s="27">
         <f>SUM(E126:E132)</f>
-        <v>4.75</v>
+        <v>14.25</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
@@ -3556,7 +3549,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>174.25</v>
+        <v>183.75</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3717,7 +3710,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>174.25</v>
+        <v>183.75</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3878,7 +3871,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>174.25</v>
+        <v>183.75</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -4038,7 +4031,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>174.25</v>
+        <v>183.75</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4199,7 +4192,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>174.25</v>
+        <v>183.75</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4360,7 +4353,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>174.25</v>
+        <v>183.75</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
+++ b/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="175">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -541,6 +541,9 @@
   </si>
   <si>
     <t>UV's überarbeitet,  3D OP Lampe</t>
+  </si>
+  <si>
+    <t>3D OP Lampe, 3D Zeitung, 3D Haftbefehl</t>
   </si>
 </sst>
 </file>
@@ -1132,7 +1135,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1142,8 +1145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="G130" sqref="G130"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3469,15 +3472,21 @@
       <c r="A129" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="B129" s="13"/>
+      <c r="B129" s="13">
+        <v>0.39583333333333331</v>
+      </c>
       <c r="C129" s="13"/>
-      <c r="D129" s="14"/>
+      <c r="D129" s="14">
+        <v>1</v>
+      </c>
       <c r="E129" s="9">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-10.5</v>
       </c>
       <c r="F129" s="12"/>
-      <c r="G129" s="12"/>
+      <c r="G129" s="12" t="s">
+        <v>174</v>
+      </c>
       <c r="H129" s="12"/>
     </row>
     <row r="130" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3534,7 +3543,7 @@
       </c>
       <c r="E133" s="27">
         <f>SUM(E126:E132)</f>
-        <v>14.25</v>
+        <v>3.75</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
@@ -3549,7 +3558,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>183.75</v>
+        <v>173.25</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3710,7 +3719,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>183.75</v>
+        <v>173.25</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3871,7 +3880,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>183.75</v>
+        <v>173.25</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -4031,7 +4040,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>183.75</v>
+        <v>173.25</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4192,7 +4201,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>183.75</v>
+        <v>173.25</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4353,7 +4362,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>183.75</v>
+        <v>173.25</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
+++ b/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="176">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -544,6 +544,9 @@
   </si>
   <si>
     <t>3D OP Lampe, 3D Zeitung, 3D Haftbefehl</t>
+  </si>
+  <si>
+    <t>Playtest, Recherche</t>
   </si>
 </sst>
 </file>
@@ -1135,7 +1138,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1146,7 +1149,7 @@
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="C129" sqref="C129"/>
+      <selection activeCell="G137" sqref="G137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3594,15 +3597,23 @@
       <c r="A136" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="B136" s="13"/>
-      <c r="C136" s="13"/>
-      <c r="D136" s="23"/>
+      <c r="B136" s="13">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="C136" s="13">
+        <v>0.6875</v>
+      </c>
+      <c r="D136" s="23">
+        <v>1</v>
+      </c>
       <c r="E136" s="9">
         <f>(B136-C136)*-24-D136</f>
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="F136" s="12"/>
-      <c r="G136" s="12"/>
+      <c r="G136" s="12" t="s">
+        <v>175</v>
+      </c>
       <c r="H136" s="12"/>
     </row>
     <row r="137" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3704,7 +3715,7 @@
       </c>
       <c r="E143" s="27">
         <f>SUM(E136:E142)</f>
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
@@ -3719,7 +3730,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>173.25</v>
+        <v>180</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3880,7 +3891,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>173.25</v>
+        <v>180</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -4040,7 +4051,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>173.25</v>
+        <v>180</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4201,7 +4212,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>173.25</v>
+        <v>180</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4362,7 +4373,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>173.25</v>
+        <v>180</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
+++ b/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="180">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -547,6 +547,18 @@
   </si>
   <si>
     <t>Playtest, Recherche</t>
+  </si>
+  <si>
+    <t>3D Kaffeetasse, 3D Becher für Stifte</t>
+  </si>
+  <si>
+    <t>Gate 02</t>
+  </si>
+  <si>
+    <t>Developer Day</t>
+  </si>
+  <si>
+    <t>Gate 01</t>
   </si>
 </sst>
 </file>
@@ -1138,7 +1150,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1148,8 +1160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="G137" sqref="G137"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="G148" sqref="G148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1839,7 +1851,9 @@
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
+      <c r="H37" s="12" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
@@ -2184,7 +2198,9 @@
       </c>
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
+      <c r="H56" s="12" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
@@ -2214,7 +2230,9 @@
       </c>
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
+      <c r="H58" s="12" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
@@ -2229,7 +2247,9 @@
       </c>
       <c r="F59" s="12"/>
       <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
+      <c r="H59" s="12" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="60" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
@@ -2244,7 +2264,9 @@
       </c>
       <c r="F60" s="12"/>
       <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
+      <c r="H60" s="12" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
@@ -2259,7 +2281,9 @@
       </c>
       <c r="F61" s="12"/>
       <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
+      <c r="H61" s="12" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
@@ -2433,7 +2457,9 @@
         <v>145</v>
       </c>
       <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
+      <c r="H70" s="12" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
@@ -2448,7 +2474,9 @@
       </c>
       <c r="F71" s="12"/>
       <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
+      <c r="H71" s="12" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="72" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
@@ -2534,7 +2562,9 @@
       </c>
       <c r="F76" s="12"/>
       <c r="G76" s="12"/>
-      <c r="H76" s="12"/>
+      <c r="H76" s="12" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="77" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
@@ -2549,7 +2579,9 @@
       </c>
       <c r="F77" s="12"/>
       <c r="G77" s="12"/>
-      <c r="H77" s="12"/>
+      <c r="H77" s="12" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="78" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
@@ -2564,7 +2596,9 @@
       </c>
       <c r="F78" s="12"/>
       <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
+      <c r="H78" s="12" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="79" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
@@ -2579,7 +2613,9 @@
       </c>
       <c r="F79" s="12"/>
       <c r="G79" s="12"/>
-      <c r="H79" s="12"/>
+      <c r="H79" s="12" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="80" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
@@ -2896,7 +2932,9 @@
       </c>
       <c r="F96" s="12"/>
       <c r="G96" s="12"/>
-      <c r="H96" s="12"/>
+      <c r="H96" s="12" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="97" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
@@ -2911,7 +2949,9 @@
       </c>
       <c r="F97" s="12"/>
       <c r="G97" s="12"/>
-      <c r="H97" s="12"/>
+      <c r="H97" s="12" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="98" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
@@ -2926,7 +2966,9 @@
       </c>
       <c r="F98" s="12"/>
       <c r="G98" s="12"/>
-      <c r="H98" s="12"/>
+      <c r="H98" s="12" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="99" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
@@ -2941,7 +2983,9 @@
       </c>
       <c r="F99" s="12"/>
       <c r="G99" s="12"/>
-      <c r="H99" s="12"/>
+      <c r="H99" s="12" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="100" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
@@ -2956,7 +3000,9 @@
       </c>
       <c r="F100" s="12"/>
       <c r="G100" s="12"/>
-      <c r="H100" s="12"/>
+      <c r="H100" s="12" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="101" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
@@ -2971,7 +3017,9 @@
       </c>
       <c r="F101" s="12"/>
       <c r="G101" s="12"/>
-      <c r="H101" s="12"/>
+      <c r="H101" s="12" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="102" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
@@ -3174,7 +3222,9 @@
       </c>
       <c r="F111" s="12"/>
       <c r="G111" s="12"/>
-      <c r="H111" s="12"/>
+      <c r="H111" s="12" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="112" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
@@ -3260,7 +3310,9 @@
       </c>
       <c r="F116" s="12"/>
       <c r="G116" s="12"/>
-      <c r="H116" s="12"/>
+      <c r="H116" s="12" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="117" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
@@ -3275,7 +3327,9 @@
       </c>
       <c r="F117" s="12"/>
       <c r="G117" s="12"/>
-      <c r="H117" s="12"/>
+      <c r="H117" s="12" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="118" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
@@ -3290,7 +3344,9 @@
       </c>
       <c r="F118" s="12"/>
       <c r="G118" s="12"/>
-      <c r="H118" s="12"/>
+      <c r="H118" s="12" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="119" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
@@ -3305,7 +3361,9 @@
       </c>
       <c r="F119" s="12"/>
       <c r="G119" s="12"/>
-      <c r="H119" s="12"/>
+      <c r="H119" s="12" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="120" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
@@ -3335,7 +3393,9 @@
       </c>
       <c r="F121" s="12"/>
       <c r="G121" s="12"/>
-      <c r="H121" s="12"/>
+      <c r="H121" s="12" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="122" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
@@ -3505,7 +3565,9 @@
       </c>
       <c r="F130" s="12"/>
       <c r="G130" s="12"/>
-      <c r="H130" s="12"/>
+      <c r="H130" s="12" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="131" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="28" t="s">
@@ -3520,7 +3582,9 @@
       </c>
       <c r="F131" s="12"/>
       <c r="G131" s="12"/>
-      <c r="H131" s="12"/>
+      <c r="H131" s="12" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="132" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="28" t="s">
@@ -3644,7 +3708,9 @@
       </c>
       <c r="F138" s="12"/>
       <c r="G138" s="12"/>
-      <c r="H138" s="12"/>
+      <c r="H138" s="12" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="139" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="28" t="s">
@@ -3659,7 +3725,9 @@
       </c>
       <c r="F139" s="12"/>
       <c r="G139" s="12"/>
-      <c r="H139" s="12"/>
+      <c r="H139" s="12" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="140" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="28" t="s">
@@ -3674,7 +3742,9 @@
       </c>
       <c r="F140" s="12"/>
       <c r="G140" s="12"/>
-      <c r="H140" s="12"/>
+      <c r="H140" s="12" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="141" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="28" t="s">
@@ -3766,30 +3836,48 @@
       <c r="A146" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="B146" s="13"/>
-      <c r="C146" s="13"/>
-      <c r="D146" s="23"/>
+      <c r="B146" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C146" s="13">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D146" s="23">
+        <v>1</v>
+      </c>
       <c r="E146" s="9">
         <f>(B146-C146)*-24-D146</f>
-        <v>0</v>
+        <v>4.9999999999999982</v>
       </c>
       <c r="F146" s="12"/>
-      <c r="G146" s="12"/>
-      <c r="H146" s="12"/>
+      <c r="G146" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="H146" s="12" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="147" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="B147" s="13"/>
-      <c r="C147" s="13"/>
-      <c r="D147" s="14"/>
+      <c r="B147" s="13">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C147" s="13">
+        <v>0.6875</v>
+      </c>
+      <c r="D147" s="14">
+        <v>0</v>
+      </c>
       <c r="E147" s="9">
         <f t="shared" ref="E147:E152" si="14">(B147-C147)*-24-D147</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F147" s="12"/>
-      <c r="G147" s="12"/>
+      <c r="G147" s="12" t="s">
+        <v>176</v>
+      </c>
       <c r="H147" s="12"/>
     </row>
     <row r="148" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3805,7 +3893,9 @@
       </c>
       <c r="F148" s="12"/>
       <c r="G148" s="12"/>
-      <c r="H148" s="12"/>
+      <c r="H148" s="12" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="149" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="28" t="s">
@@ -3820,7 +3910,9 @@
       </c>
       <c r="F149" s="12"/>
       <c r="G149" s="12"/>
-      <c r="H149" s="12"/>
+      <c r="H149" s="12" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="150" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="28" t="s">
@@ -3835,7 +3927,9 @@
       </c>
       <c r="F150" s="12"/>
       <c r="G150" s="12"/>
-      <c r="H150" s="12"/>
+      <c r="H150" s="12" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="151" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="28" t="s">
@@ -3850,7 +3944,9 @@
       </c>
       <c r="F151" s="12"/>
       <c r="G151" s="12"/>
-      <c r="H151" s="12"/>
+      <c r="H151" s="12" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="152" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="28" t="s">
@@ -3876,7 +3972,7 @@
       </c>
       <c r="E153" s="27">
         <f>SUM(E146:E152)</f>
-        <v>0</v>
+        <v>9.9999999999999982</v>
       </c>
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
@@ -3891,7 +3987,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -4051,7 +4147,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4212,7 +4308,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4373,7 +4469,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
+++ b/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="181">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -559,6 +559,9 @@
   </si>
   <si>
     <t>Gate 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3D Papierknäul, 3D Papierkorb, 3D Füller </t>
   </si>
 </sst>
 </file>
@@ -1150,7 +1153,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1161,7 +1164,7 @@
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="G148" sqref="G148"/>
+      <selection activeCell="G152" sqref="G152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3908,7 +3911,9 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F149" s="12"/>
+      <c r="F149" s="12" t="s">
+        <v>145</v>
+      </c>
       <c r="G149" s="12"/>
       <c r="H149" s="12" t="s">
         <v>152</v>
@@ -3918,15 +3923,23 @@
       <c r="A150" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="B150" s="13"/>
-      <c r="C150" s="13"/>
-      <c r="D150" s="14"/>
+      <c r="B150" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C150" s="13">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D150" s="14">
+        <v>1</v>
+      </c>
       <c r="E150" s="9">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>4.9999999999999982</v>
       </c>
       <c r="F150" s="12"/>
-      <c r="G150" s="12"/>
+      <c r="G150" s="12" t="s">
+        <v>180</v>
+      </c>
       <c r="H150" s="12" t="s">
         <v>156</v>
       </c>
@@ -3942,7 +3955,9 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F151" s="12"/>
+      <c r="F151" s="12" t="s">
+        <v>145</v>
+      </c>
       <c r="G151" s="12"/>
       <c r="H151" s="12" t="s">
         <v>152</v>
@@ -3972,7 +3987,7 @@
       </c>
       <c r="E153" s="27">
         <f>SUM(E146:E152)</f>
-        <v>9.9999999999999982</v>
+        <v>14.999999999999996</v>
       </c>
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
@@ -3987,7 +4002,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -4147,7 +4162,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4308,7 +4323,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4469,7 +4484,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
+++ b/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="183">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -561,7 +561,13 @@
     <t>Gate 01</t>
   </si>
   <si>
-    <t xml:space="preserve">3D Papierknäul, 3D Papierkorb, 3D Füller </t>
+    <t xml:space="preserve">3D Papierknäul, 3D Papierkorb </t>
+  </si>
+  <si>
+    <t>3D Füller, Recherche</t>
+  </si>
+  <si>
+    <t>Bericht Voodoo, Concept Schriftzug</t>
   </si>
 </sst>
 </file>
@@ -1163,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="G152" sqref="G152"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="G161" sqref="G161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4083,31 +4089,51 @@
       <c r="A159" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="B159" s="13"/>
-      <c r="C159" s="13"/>
-      <c r="D159" s="14"/>
+      <c r="B159" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C159" s="13">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D159" s="14">
+        <v>1</v>
+      </c>
       <c r="E159" s="9">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>4.9999999999999982</v>
       </c>
       <c r="F159" s="12"/>
-      <c r="G159" s="12"/>
-      <c r="H159" s="12"/>
+      <c r="G159" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="H159" s="12" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="160" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="B160" s="13"/>
-      <c r="C160" s="13"/>
-      <c r="D160" s="14"/>
+      <c r="B160" s="13">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C160" s="13">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D160" s="14">
+        <v>1</v>
+      </c>
       <c r="E160" s="9">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>5.0000000000000018</v>
       </c>
       <c r="F160" s="12"/>
-      <c r="G160" s="12"/>
-      <c r="H160" s="12"/>
+      <c r="G160" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="H160" s="12" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="161" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="28" t="s">
@@ -4147,7 +4173,7 @@
       </c>
       <c r="E163" s="27">
         <f>SUM(E156:E162)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
@@ -4162,7 +4188,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4323,7 +4349,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4484,7 +4510,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
+++ b/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="184">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -568,6 +568,9 @@
   </si>
   <si>
     <t>Bericht Voodoo, Concept Schriftzug</t>
+  </si>
+  <si>
+    <t>UV's überarbeitet, 3D Stempelhalter</t>
   </si>
 </sst>
 </file>
@@ -1159,7 +1162,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1169,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="G161" sqref="G161"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="G170" sqref="G170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4224,15 +4227,23 @@
       <c r="A166" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="B166" s="13"/>
-      <c r="C166" s="13"/>
-      <c r="D166" s="23"/>
+      <c r="B166" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="C166" s="13">
+        <v>0.6875</v>
+      </c>
+      <c r="D166" s="23">
+        <v>1</v>
+      </c>
       <c r="E166" s="9">
         <f>(B166-C166)*-24-D166</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="F166" s="12"/>
-      <c r="G166" s="12"/>
+      <c r="G166" s="12" t="s">
+        <v>183</v>
+      </c>
       <c r="H166" s="12"/>
     </row>
     <row r="167" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4334,7 +4345,7 @@
       </c>
       <c r="E173" s="27">
         <f>SUM(E166:E172)</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
@@ -4349,7 +4360,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>205</v>
+        <v>211.5</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4510,7 +4521,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>205</v>
+        <v>211.5</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
+++ b/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
@@ -570,7 +570,7 @@
     <t>Bericht Voodoo, Concept Schriftzug</t>
   </si>
   <si>
-    <t>UV's überarbeitet, 3D Stempelhalter</t>
+    <t>UV's überarbeitet, 3D Stempelhalter, 3D Flagge</t>
   </si>
 </sst>
 </file>
@@ -1162,7 +1162,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1173,7 +1173,7 @@
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="G170" sqref="G170"/>
+      <selection activeCell="G167" sqref="G167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
+++ b/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="185">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -571,6 +571,9 @@
   </si>
   <si>
     <t>UV's überarbeitet, 3D Stempelhalter, 3D Flagge</t>
+  </si>
+  <si>
+    <t>3D Laborwaage</t>
   </si>
 </sst>
 </file>
@@ -1162,7 +1165,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1173,7 +1176,7 @@
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="G167" sqref="G167"/>
+      <selection activeCell="G168" sqref="G168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4250,15 +4253,21 @@
       <c r="A167" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="B167" s="13"/>
-      <c r="C167" s="13"/>
+      <c r="B167" s="13">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="C167" s="13">
+        <v>0.5</v>
+      </c>
       <c r="D167" s="14"/>
       <c r="E167" s="9">
         <f t="shared" ref="E167:E172" si="16">(B167-C167)*-24-D167</f>
-        <v>0</v>
+        <v>3.2500000000000004</v>
       </c>
       <c r="F167" s="12"/>
-      <c r="G167" s="12"/>
+      <c r="G167" s="12" t="s">
+        <v>184</v>
+      </c>
       <c r="H167" s="12"/>
     </row>
     <row r="168" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4345,7 +4354,7 @@
       </c>
       <c r="E173" s="27">
         <f>SUM(E166:E172)</f>
-        <v>6.5</v>
+        <v>9.75</v>
       </c>
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
@@ -4360,7 +4369,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>211.5</v>
+        <v>214.75</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4521,7 +4530,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>211.5</v>
+        <v>214.75</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
+++ b/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="186">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -574,6 +574,9 @@
   </si>
   <si>
     <t>3D Laborwaage</t>
+  </si>
+  <si>
+    <t>3D Infusionsständer, 3D Infusionsbeutel</t>
   </si>
 </sst>
 </file>
@@ -1165,7 +1168,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1176,7 +1179,7 @@
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="G168" sqref="G168"/>
+      <selection activeCell="D169" sqref="D169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4283,33 +4286,47 @@
       </c>
       <c r="F168" s="12"/>
       <c r="G168" s="12"/>
-      <c r="H168" s="12"/>
+      <c r="H168" s="12" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="169" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="B169" s="13"/>
-      <c r="C169" s="13"/>
-      <c r="D169" s="14"/>
+      <c r="B169" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C169" s="13">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D169" s="14">
+        <v>1</v>
+      </c>
       <c r="E169" s="9">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="F169" s="12"/>
-      <c r="G169" s="12"/>
+        <v>4.9999999999999982</v>
+      </c>
+      <c r="F169" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G169" s="12" t="s">
+        <v>185</v>
+      </c>
       <c r="H169" s="12"/>
     </row>
     <row r="170" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="B170" s="13"/>
+      <c r="B170" s="13">
+        <v>0.36458333333333331</v>
+      </c>
       <c r="C170" s="13"/>
       <c r="D170" s="14"/>
       <c r="E170" s="9">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-8.75</v>
       </c>
       <c r="F170" s="12"/>
       <c r="G170" s="12"/>
@@ -4354,7 +4371,7 @@
       </c>
       <c r="E173" s="27">
         <f>SUM(E166:E172)</f>
-        <v>9.75</v>
+        <v>5.9999999999999982</v>
       </c>
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
@@ -4369,7 +4386,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>214.75</v>
+        <v>211</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4530,7 +4547,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>214.75</v>
+        <v>211</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
+++ b/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="187">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -577,6 +577,9 @@
   </si>
   <si>
     <t>3D Infusionsständer, 3D Infusionsbeutel</t>
+  </si>
+  <si>
+    <t>3D Schlüssel, 3D Schlüsselring, 3D Abreißkalender, 3D Spritze, UV's überarbeitet</t>
   </si>
 </sst>
 </file>
@@ -1168,7 +1171,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1179,7 +1182,7 @@
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="D169" sqref="D169"/>
+      <selection activeCell="G172" sqref="G171:G172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4315,21 +4318,27 @@
       </c>
       <c r="H169" s="12"/>
     </row>
-    <row r="170" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="28" t="s">
         <v>135</v>
       </c>
       <c r="B170" s="13">
         <v>0.36458333333333331</v>
       </c>
-      <c r="C170" s="13"/>
-      <c r="D170" s="14"/>
+      <c r="C170" s="13">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D170" s="14">
+        <v>1</v>
+      </c>
       <c r="E170" s="9">
         <f t="shared" si="16"/>
-        <v>-8.75</v>
+        <v>7.75</v>
       </c>
       <c r="F170" s="12"/>
-      <c r="G170" s="12"/>
+      <c r="G170" s="12" t="s">
+        <v>186</v>
+      </c>
       <c r="H170" s="12"/>
     </row>
     <row r="171" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4371,7 +4380,7 @@
       </c>
       <c r="E173" s="27">
         <f>SUM(E166:E172)</f>
-        <v>5.9999999999999982</v>
+        <v>22.5</v>
       </c>
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
@@ -4386,7 +4395,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>211</v>
+        <v>227.5</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4547,7 +4556,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>211</v>
+        <v>227.5</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
+++ b/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="188">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -580,6 +580,9 @@
   </si>
   <si>
     <t>3D Schlüssel, 3D Schlüsselring, 3D Abreißkalender, 3D Spritze, UV's überarbeitet</t>
+  </si>
+  <si>
+    <t>UV's überarbeitet, 3D Hutständer, 3D Hut</t>
   </si>
 </sst>
 </file>
@@ -1171,7 +1174,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1181,8 +1184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="G172" sqref="G171:G172"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="G176" sqref="G176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4431,15 +4434,19 @@
       <c r="A176" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="B176" s="13"/>
+      <c r="B176" s="13">
+        <v>0.36458333333333331</v>
+      </c>
       <c r="C176" s="13"/>
       <c r="D176" s="23"/>
       <c r="E176" s="9">
         <f>(B176-C176)*-24-D176</f>
-        <v>0</v>
+        <v>-8.75</v>
       </c>
       <c r="F176" s="12"/>
-      <c r="G176" s="12"/>
+      <c r="G176" s="12" t="s">
+        <v>187</v>
+      </c>
       <c r="H176" s="12"/>
     </row>
     <row r="177" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4541,7 +4548,7 @@
       </c>
       <c r="E183" s="27">
         <f>SUM(E176:E182)</f>
-        <v>0</v>
+        <v>-8.75</v>
       </c>
       <c r="F183" s="2"/>
       <c r="G183" s="2"/>
@@ -4556,7 +4563,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>227.5</v>
+        <v>218.75</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
+++ b/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
@@ -582,7 +582,7 @@
     <t>3D Schlüssel, 3D Schlüsselring, 3D Abreißkalender, 3D Spritze, UV's überarbeitet</t>
   </si>
   <si>
-    <t>UV's überarbeitet, 3D Hutständer, 3D Hut</t>
+    <t>UV's überarbeitet, 3D Hutständer, 3D Hut, 3D Besen. 3D Stempelkissen</t>
   </si>
 </sst>
 </file>
@@ -1174,7 +1174,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1185,7 +1185,7 @@
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="G176" sqref="G176"/>
+      <selection activeCell="G177" sqref="G177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4430,18 +4430,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="28" t="s">
         <v>138</v>
       </c>
       <c r="B176" s="13">
         <v>0.36458333333333331</v>
       </c>
-      <c r="C176" s="13"/>
-      <c r="D176" s="23"/>
+      <c r="C176" s="13">
+        <v>0.6875</v>
+      </c>
+      <c r="D176" s="23">
+        <v>0.5</v>
+      </c>
       <c r="E176" s="9">
         <f>(B176-C176)*-24-D176</f>
-        <v>-8.75</v>
+        <v>7.25</v>
       </c>
       <c r="F176" s="12"/>
       <c r="G176" s="12" t="s">
@@ -4548,7 +4552,7 @@
       </c>
       <c r="E183" s="27">
         <f>SUM(E176:E182)</f>
-        <v>-8.75</v>
+        <v>7.25</v>
       </c>
       <c r="F183" s="2"/>
       <c r="G183" s="2"/>
@@ -4563,7 +4567,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>218.75</v>
+        <v>234.75</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
+++ b/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="189">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -583,6 +583,9 @@
   </si>
   <si>
     <t>UV's überarbeitet, 3D Hutständer, 3D Hut, 3D Besen. 3D Stempelkissen</t>
+  </si>
+  <si>
+    <t>3D Retorte, 3D Ständer</t>
   </si>
 </sst>
 </file>
@@ -1174,7 +1177,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1185,7 +1188,7 @@
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="G177" sqref="G177"/>
+      <selection activeCell="G178" sqref="G178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4457,15 +4460,19 @@
       <c r="A177" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="B177" s="13"/>
+      <c r="B177" s="13">
+        <v>0.36458333333333331</v>
+      </c>
       <c r="C177" s="13"/>
       <c r="D177" s="14"/>
       <c r="E177" s="9">
         <f t="shared" ref="E177:E182" si="17">(B177-C177)*-24-D177</f>
-        <v>0</v>
+        <v>-8.75</v>
       </c>
       <c r="F177" s="12"/>
-      <c r="G177" s="12"/>
+      <c r="G177" s="12" t="s">
+        <v>188</v>
+      </c>
       <c r="H177" s="12"/>
     </row>
     <row r="178" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4552,7 +4559,7 @@
       </c>
       <c r="E183" s="27">
         <f>SUM(E176:E182)</f>
-        <v>7.25</v>
+        <v>-1.5</v>
       </c>
       <c r="F183" s="2"/>
       <c r="G183" s="2"/>
@@ -4567,7 +4574,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>234.75</v>
+        <v>226</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
+++ b/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
@@ -585,7 +585,7 @@
     <t>UV's überarbeitet, 3D Hutständer, 3D Hut, 3D Besen. 3D Stempelkissen</t>
   </si>
   <si>
-    <t>3D Retorte, 3D Ständer</t>
+    <t>3D Retorte, 3D Ständer, 3D Feuerzeug</t>
   </si>
 </sst>
 </file>
@@ -1177,7 +1177,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1188,7 +1188,7 @@
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="G178" sqref="G178"/>
+      <selection activeCell="G177" sqref="G177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
+++ b/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
@@ -585,7 +585,7 @@
     <t>UV's überarbeitet, 3D Hutständer, 3D Hut, 3D Besen. 3D Stempelkissen</t>
   </si>
   <si>
-    <t>3D Retorte, 3D Ständer, 3D Feuerzeug</t>
+    <t>3D Retorte, 3D Ständer, 3D Feuerzeug, Logos</t>
   </si>
 </sst>
 </file>
@@ -1188,7 +1188,7 @@
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="G177" sqref="G177"/>
+      <selection activeCell="F177" sqref="F177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4463,11 +4463,15 @@
       <c r="B177" s="13">
         <v>0.36458333333333331</v>
       </c>
-      <c r="C177" s="13"/>
-      <c r="D177" s="14"/>
+      <c r="C177" s="13">
+        <v>0.6875</v>
+      </c>
+      <c r="D177" s="14">
+        <v>1</v>
+      </c>
       <c r="E177" s="9">
         <f t="shared" ref="E177:E182" si="17">(B177-C177)*-24-D177</f>
-        <v>-8.75</v>
+        <v>6.75</v>
       </c>
       <c r="F177" s="12"/>
       <c r="G177" s="12" t="s">
@@ -4559,7 +4563,7 @@
       </c>
       <c r="E183" s="27">
         <f>SUM(E176:E182)</f>
-        <v>-1.5</v>
+        <v>14</v>
       </c>
       <c r="F183" s="2"/>
       <c r="G183" s="2"/>
@@ -4574,7 +4578,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>226</v>
+        <v>241.5</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
+++ b/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="190">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -586,6 +586,9 @@
   </si>
   <si>
     <t>3D Retorte, 3D Ständer, 3D Feuerzeug, Logos</t>
+  </si>
+  <si>
+    <t>Art Bible überarbeitet</t>
   </si>
 </sst>
 </file>
@@ -1177,7 +1180,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1188,7 +1191,7 @@
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="F177" sqref="F177"/>
+      <selection activeCell="G179" sqref="G179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4483,15 +4486,19 @@
       <c r="A178" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="B178" s="13"/>
+      <c r="B178" s="13">
+        <v>0.36458333333333331</v>
+      </c>
       <c r="C178" s="13"/>
       <c r="D178" s="14"/>
       <c r="E178" s="9">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>-8.75</v>
       </c>
       <c r="F178" s="12"/>
-      <c r="G178" s="12"/>
+      <c r="G178" s="12" t="s">
+        <v>189</v>
+      </c>
       <c r="H178" s="12"/>
     </row>
     <row r="179" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4563,7 +4570,7 @@
       </c>
       <c r="E183" s="27">
         <f>SUM(E176:E182)</f>
-        <v>14</v>
+        <v>5.25</v>
       </c>
       <c r="F183" s="2"/>
       <c r="G183" s="2"/>
@@ -4578,7 +4585,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>241.5</v>
+        <v>232.75</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
+++ b/_WIP/Michelle/Michelle-Zeiterfassung.xlsx
@@ -588,7 +588,7 @@
     <t>3D Retorte, 3D Ständer, 3D Feuerzeug, Logos</t>
   </si>
   <si>
-    <t>Art Bible überarbeitet</t>
+    <t>Art Bible überarbeitet, Controller</t>
   </si>
 </sst>
 </file>
@@ -1180,7 +1180,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4489,11 +4489,15 @@
       <c r="B178" s="13">
         <v>0.36458333333333331</v>
       </c>
-      <c r="C178" s="13"/>
-      <c r="D178" s="14"/>
+      <c r="C178" s="13">
+        <v>0.6875</v>
+      </c>
+      <c r="D178" s="14">
+        <v>1</v>
+      </c>
       <c r="E178" s="9">
         <f t="shared" si="17"/>
-        <v>-8.75</v>
+        <v>6.75</v>
       </c>
       <c r="F178" s="12"/>
       <c r="G178" s="12" t="s">
@@ -4570,7 +4574,7 @@
       </c>
       <c r="E183" s="27">
         <f>SUM(E176:E182)</f>
-        <v>5.25</v>
+        <v>20.75</v>
       </c>
       <c r="F183" s="2"/>
       <c r="G183" s="2"/>
@@ -4585,7 +4589,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>232.75</v>
+        <v>248.25</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
